--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7752662683106734</v>
+        <v>0.7752662683106746</v>
       </c>
       <c r="D2">
-        <v>0.7971969738202919</v>
+        <v>0.7971969738202932</v>
       </c>
       <c r="E2">
-        <v>0.8129420959680183</v>
+        <v>0.8129420959680195</v>
       </c>
       <c r="F2">
-        <v>0.7383902341648746</v>
+        <v>0.7383902341648754</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.004674949836464</v>
       </c>
       <c r="J2">
-        <v>0.807132000707493</v>
+        <v>0.8071320007074942</v>
       </c>
       <c r="K2">
-        <v>0.8124545614892522</v>
+        <v>0.8124545614892534</v>
       </c>
       <c r="L2">
-        <v>0.8278136177843824</v>
+        <v>0.8278136177843836</v>
       </c>
       <c r="M2">
-        <v>0.7552916313389328</v>
+        <v>0.7552916313389337</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8426714080427586</v>
+        <v>0.8426714080427616</v>
       </c>
       <c r="D3">
-        <v>0.8599090310551885</v>
+        <v>0.8599090310551911</v>
       </c>
       <c r="E3">
-        <v>0.8700593263631717</v>
+        <v>0.8700593263631746</v>
       </c>
       <c r="F3">
-        <v>0.8236811409675741</v>
+        <v>0.8236811409675767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.018872495603086</v>
+        <v>1.018872495603087</v>
       </c>
       <c r="J3">
-        <v>0.8686129330173289</v>
+        <v>0.8686129330173318</v>
       </c>
       <c r="K3">
-        <v>0.8727154341998925</v>
+        <v>0.8727154341998951</v>
       </c>
       <c r="L3">
-        <v>0.8826776418676548</v>
+        <v>0.8826776418676576</v>
       </c>
       <c r="M3">
-        <v>0.837208898421484</v>
+        <v>0.8372088984214865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8695302552603288</v>
+        <v>0.8695302552603316</v>
       </c>
       <c r="D4">
-        <v>0.8848550395332103</v>
+        <v>0.8848550395332129</v>
       </c>
       <c r="E4">
-        <v>0.8928942357214743</v>
+        <v>0.8928942357214765</v>
       </c>
       <c r="F4">
-        <v>0.8566594535742398</v>
+        <v>0.8566594535742427</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.024463089052524</v>
       </c>
       <c r="J4">
-        <v>0.8929834545440367</v>
+        <v>0.8929834545440393</v>
       </c>
       <c r="K4">
-        <v>0.8965753236154874</v>
+        <v>0.8965753236154901</v>
       </c>
       <c r="L4">
-        <v>0.9044838731883775</v>
+        <v>0.9044838731883796</v>
       </c>
       <c r="M4">
-        <v>0.8688631159622393</v>
+        <v>0.8688631159622421</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8792353494132775</v>
+        <v>0.879235349413278</v>
       </c>
       <c r="D5">
-        <v>0.8938630367377549</v>
+        <v>0.8938630367377556</v>
       </c>
       <c r="E5">
-        <v>0.9011553818906999</v>
+        <v>0.9011553818907005</v>
       </c>
       <c r="F5">
-        <v>0.8684435484128483</v>
+        <v>0.8684435484128484</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.026463698866593</v>
       </c>
       <c r="J5">
-        <v>0.9017709002945395</v>
+        <v>0.90177090029454</v>
       </c>
       <c r="K5">
-        <v>0.9051748779229529</v>
+        <v>0.9051748779229534</v>
       </c>
       <c r="L5">
-        <v>0.9123546099129635</v>
+        <v>0.9123546099129641</v>
       </c>
       <c r="M5">
-        <v>0.8801669945346097</v>
+        <v>0.8801669945346098</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8807947320075424</v>
+        <v>0.8807947320075421</v>
       </c>
       <c r="D6">
-        <v>0.895310106809789</v>
+        <v>0.8953101068097884</v>
       </c>
       <c r="E6">
-        <v>0.9024832412752529</v>
+        <v>0.9024832412752527</v>
       </c>
       <c r="F6">
-        <v>0.8703304596293003</v>
+        <v>0.8703304596292999</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.026783947331852</v>
       </c>
       <c r="J6">
-        <v>0.9031818875468982</v>
+        <v>0.9031818875468975</v>
       </c>
       <c r="K6">
-        <v>0.9065555050273769</v>
+        <v>0.9065555050273764</v>
       </c>
       <c r="L6">
-        <v>0.9136187939600859</v>
+        <v>0.9136187939600857</v>
       </c>
       <c r="M6">
-        <v>0.8819765783504927</v>
+        <v>0.8819765783504921</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8696650258488824</v>
+        <v>0.8696650258488807</v>
       </c>
       <c r="D7">
-        <v>0.8849801519048509</v>
+        <v>0.8849801519048496</v>
       </c>
       <c r="E7">
-        <v>0.8930089188890442</v>
+        <v>0.8930089188890431</v>
       </c>
       <c r="F7">
-        <v>0.8568235727972348</v>
+        <v>0.8568235727972335</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.024490953535136</v>
       </c>
       <c r="J7">
-        <v>0.8931055510848681</v>
+        <v>0.8931055510848663</v>
       </c>
       <c r="K7">
-        <v>0.8966948234100945</v>
+        <v>0.8966948234100932</v>
       </c>
       <c r="L7">
-        <v>0.9045932038434444</v>
+        <v>0.904593203843443</v>
       </c>
       <c r="M7">
-        <v>0.8690205772202869</v>
+        <v>0.8690205772202857</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D8">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E8">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F8">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J8">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K8">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L8">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M8">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D9">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E9">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F9">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J9">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K9">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L9">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M9">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D10">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E10">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F10">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J10">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K10">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L10">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M10">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D11">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E11">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F11">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J11">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K11">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L11">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M11">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D12">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E12">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F12">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J12">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K12">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L12">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M12">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D13">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E13">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F13">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J13">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K13">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L13">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M13">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D14">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E14">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F14">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J14">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K14">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L14">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M14">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D15">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E15">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F15">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J15">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K15">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L15">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M15">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D16">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E16">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F16">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J16">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K16">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L16">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M16">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D17">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E17">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F17">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J17">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K17">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L17">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M17">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D18">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E18">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F18">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J18">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K18">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L18">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M18">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D19">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E19">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F19">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J19">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K19">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L19">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M19">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D20">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E20">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F20">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J20">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K20">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L20">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M20">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D21">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E21">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F21">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J21">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K21">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L21">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M21">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D22">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E22">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F22">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J22">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K22">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L22">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M22">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D23">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E23">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F23">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J23">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K23">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L23">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M23">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D24">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E24">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F24">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J24">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K24">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L24">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M24">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8050760813075636</v>
+        <v>0.805076081307566</v>
       </c>
       <c r="D25">
-        <v>0.8249514845481175</v>
+        <v>0.8249514845481195</v>
       </c>
       <c r="E25">
-        <v>0.8381678867092364</v>
+        <v>0.8381678867092385</v>
       </c>
       <c r="F25">
-        <v>0.7765846418673487</v>
+        <v>0.7765846418673518</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J25">
-        <v>0.8343788463078614</v>
+        <v>0.8343788463078637</v>
       </c>
       <c r="K25">
-        <v>0.8391730700093996</v>
+        <v>0.8391730700094019</v>
       </c>
       <c r="L25">
-        <v>0.8521010345540361</v>
+        <v>0.8521010345540381</v>
       </c>
       <c r="M25">
-        <v>0.7919755416062241</v>
+        <v>0.7919755416062273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7752662683106746</v>
+        <v>0.7752662683106734</v>
       </c>
       <c r="D2">
-        <v>0.7971969738202932</v>
+        <v>0.7971969738202919</v>
       </c>
       <c r="E2">
-        <v>0.8129420959680195</v>
+        <v>0.8129420959680183</v>
       </c>
       <c r="F2">
-        <v>0.7383902341648754</v>
+        <v>0.7383902341648746</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.004674949836464</v>
       </c>
       <c r="J2">
-        <v>0.8071320007074942</v>
+        <v>0.807132000707493</v>
       </c>
       <c r="K2">
-        <v>0.8124545614892534</v>
+        <v>0.8124545614892522</v>
       </c>
       <c r="L2">
-        <v>0.8278136177843836</v>
+        <v>0.8278136177843824</v>
       </c>
       <c r="M2">
-        <v>0.7552916313389337</v>
+        <v>0.7552916313389328</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8426714080427616</v>
+        <v>0.8426714080427586</v>
       </c>
       <c r="D3">
-        <v>0.8599090310551911</v>
+        <v>0.8599090310551885</v>
       </c>
       <c r="E3">
-        <v>0.8700593263631746</v>
+        <v>0.8700593263631717</v>
       </c>
       <c r="F3">
-        <v>0.8236811409675767</v>
+        <v>0.8236811409675741</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.018872495603087</v>
+        <v>1.018872495603086</v>
       </c>
       <c r="J3">
-        <v>0.8686129330173318</v>
+        <v>0.8686129330173289</v>
       </c>
       <c r="K3">
-        <v>0.8727154341998951</v>
+        <v>0.8727154341998925</v>
       </c>
       <c r="L3">
-        <v>0.8826776418676576</v>
+        <v>0.8826776418676548</v>
       </c>
       <c r="M3">
-        <v>0.8372088984214865</v>
+        <v>0.837208898421484</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8695302552603316</v>
+        <v>0.8695302552603288</v>
       </c>
       <c r="D4">
-        <v>0.8848550395332129</v>
+        <v>0.8848550395332103</v>
       </c>
       <c r="E4">
-        <v>0.8928942357214765</v>
+        <v>0.8928942357214743</v>
       </c>
       <c r="F4">
-        <v>0.8566594535742427</v>
+        <v>0.8566594535742398</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.024463089052524</v>
       </c>
       <c r="J4">
-        <v>0.8929834545440393</v>
+        <v>0.8929834545440367</v>
       </c>
       <c r="K4">
-        <v>0.8965753236154901</v>
+        <v>0.8965753236154874</v>
       </c>
       <c r="L4">
-        <v>0.9044838731883796</v>
+        <v>0.9044838731883775</v>
       </c>
       <c r="M4">
-        <v>0.8688631159622421</v>
+        <v>0.8688631159622393</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.879235349413278</v>
+        <v>0.8792353494132775</v>
       </c>
       <c r="D5">
-        <v>0.8938630367377556</v>
+        <v>0.8938630367377549</v>
       </c>
       <c r="E5">
-        <v>0.9011553818907005</v>
+        <v>0.9011553818906999</v>
       </c>
       <c r="F5">
-        <v>0.8684435484128484</v>
+        <v>0.8684435484128483</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.026463698866593</v>
       </c>
       <c r="J5">
-        <v>0.90177090029454</v>
+        <v>0.9017709002945395</v>
       </c>
       <c r="K5">
-        <v>0.9051748779229534</v>
+        <v>0.9051748779229529</v>
       </c>
       <c r="L5">
-        <v>0.9123546099129641</v>
+        <v>0.9123546099129635</v>
       </c>
       <c r="M5">
-        <v>0.8801669945346098</v>
+        <v>0.8801669945346097</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8807947320075421</v>
+        <v>0.8807947320075424</v>
       </c>
       <c r="D6">
-        <v>0.8953101068097884</v>
+        <v>0.895310106809789</v>
       </c>
       <c r="E6">
-        <v>0.9024832412752527</v>
+        <v>0.9024832412752529</v>
       </c>
       <c r="F6">
-        <v>0.8703304596292999</v>
+        <v>0.8703304596293003</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.026783947331852</v>
       </c>
       <c r="J6">
-        <v>0.9031818875468975</v>
+        <v>0.9031818875468982</v>
       </c>
       <c r="K6">
-        <v>0.9065555050273764</v>
+        <v>0.9065555050273769</v>
       </c>
       <c r="L6">
-        <v>0.9136187939600857</v>
+        <v>0.9136187939600859</v>
       </c>
       <c r="M6">
-        <v>0.8819765783504921</v>
+        <v>0.8819765783504927</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8696650258488807</v>
+        <v>0.8696650258488824</v>
       </c>
       <c r="D7">
-        <v>0.8849801519048496</v>
+        <v>0.8849801519048509</v>
       </c>
       <c r="E7">
-        <v>0.8930089188890431</v>
+        <v>0.8930089188890442</v>
       </c>
       <c r="F7">
-        <v>0.8568235727972335</v>
+        <v>0.8568235727972348</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.024490953535136</v>
       </c>
       <c r="J7">
-        <v>0.8931055510848663</v>
+        <v>0.8931055510848681</v>
       </c>
       <c r="K7">
-        <v>0.8966948234100932</v>
+        <v>0.8966948234100945</v>
       </c>
       <c r="L7">
-        <v>0.904593203843443</v>
+        <v>0.9045932038434444</v>
       </c>
       <c r="M7">
-        <v>0.8690205772202857</v>
+        <v>0.8690205772202869</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D8">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E8">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F8">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J8">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K8">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L8">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M8">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D9">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E9">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F9">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J9">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K9">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L9">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M9">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D10">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E10">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F10">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J10">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K10">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L10">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M10">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D11">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E11">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F11">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J11">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K11">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L11">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M11">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D12">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E12">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F12">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J12">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K12">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L12">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M12">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D13">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E13">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F13">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J13">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K13">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L13">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M13">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D14">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E14">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F14">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J14">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K14">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L14">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M14">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D15">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E15">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F15">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J15">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K15">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L15">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M15">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D16">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E16">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F16">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J16">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K16">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L16">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M16">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D17">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E17">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F17">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J17">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K17">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L17">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M17">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D18">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E18">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F18">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J18">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K18">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L18">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M18">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D19">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E19">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F19">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J19">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K19">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L19">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M19">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D20">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E20">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F20">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J20">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K20">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L20">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M20">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D21">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E21">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F21">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J21">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K21">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L21">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M21">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D22">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E22">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F22">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J22">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K22">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L22">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M22">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D23">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E23">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F23">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J23">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K23">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L23">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M23">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D24">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E24">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F24">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J24">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K24">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L24">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M24">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.805076081307566</v>
+        <v>0.8050760813075636</v>
       </c>
       <c r="D25">
-        <v>0.8249514845481195</v>
+        <v>0.8249514845481175</v>
       </c>
       <c r="E25">
-        <v>0.8381678867092385</v>
+        <v>0.8381678867092364</v>
       </c>
       <c r="F25">
-        <v>0.7765846418673518</v>
+        <v>0.7765846418673487</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.010967110713095</v>
       </c>
       <c r="J25">
-        <v>0.8343788463078637</v>
+        <v>0.8343788463078614</v>
       </c>
       <c r="K25">
-        <v>0.8391730700094019</v>
+        <v>0.8391730700093996</v>
       </c>
       <c r="L25">
-        <v>0.8521010345540381</v>
+        <v>0.8521010345540361</v>
       </c>
       <c r="M25">
-        <v>0.7919755416062273</v>
+        <v>0.7919755416062241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7752662683106734</v>
+        <v>0.7834390774119646</v>
       </c>
       <c r="D2">
-        <v>0.7971969738202919</v>
+        <v>0.8047274905781059</v>
       </c>
       <c r="E2">
-        <v>0.8129420959680183</v>
+        <v>0.8198805591659563</v>
       </c>
       <c r="F2">
-        <v>0.7383902341648746</v>
+        <v>0.7472153554538122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.004674949836464</v>
+        <v>1.005880181748237</v>
       </c>
       <c r="J2">
-        <v>0.807132000707493</v>
+        <v>0.8148074961193849</v>
       </c>
       <c r="K2">
-        <v>0.8124545614892522</v>
+        <v>0.8197978949754371</v>
       </c>
       <c r="L2">
-        <v>0.8278136177843824</v>
+        <v>0.8345882492543646</v>
       </c>
       <c r="M2">
-        <v>0.7552916313389328</v>
+        <v>0.7638473313709587</v>
+      </c>
+      <c r="N2">
+        <v>0.8159646162236003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8426714080427586</v>
+        <v>0.8478803323205368</v>
       </c>
       <c r="D3">
-        <v>0.8599090310551885</v>
+        <v>0.8646868957737865</v>
       </c>
       <c r="E3">
-        <v>0.8700593263631717</v>
+        <v>0.8745176688659376</v>
       </c>
       <c r="F3">
-        <v>0.8236811409675741</v>
+        <v>0.828530142678592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.018872495603086</v>
+        <v>1.019461579800702</v>
       </c>
       <c r="J3">
-        <v>0.8686129330173289</v>
+        <v>0.8735948481324511</v>
       </c>
       <c r="K3">
-        <v>0.8727154341998925</v>
+        <v>0.8774040464810894</v>
       </c>
       <c r="L3">
-        <v>0.8826776418676548</v>
+        <v>0.8870551637046667</v>
       </c>
       <c r="M3">
-        <v>0.837208898421484</v>
+        <v>0.8419565180298212</v>
+      </c>
+      <c r="N3">
+        <v>0.8748354530195287</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8695302552603288</v>
+        <v>0.8743048959967568</v>
       </c>
       <c r="D4">
-        <v>0.8848550395332103</v>
+        <v>0.8892328018300515</v>
       </c>
       <c r="E4">
-        <v>0.8928942357214743</v>
+        <v>0.8969923339643235</v>
       </c>
       <c r="F4">
-        <v>0.8566594535742398</v>
+        <v>0.8609278267623485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024463089052524</v>
+        <v>1.024961906909049</v>
       </c>
       <c r="J4">
-        <v>0.8929834545440367</v>
+        <v>0.8975798054857308</v>
       </c>
       <c r="K4">
-        <v>0.8965753236154874</v>
+        <v>0.9008815657876913</v>
       </c>
       <c r="L4">
-        <v>0.9044838731883775</v>
+        <v>0.9085165268793887</v>
       </c>
       <c r="M4">
-        <v>0.8688631159622393</v>
+        <v>0.8730556761741368</v>
+      </c>
+      <c r="N4">
+        <v>0.8988544717633631</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8792353494132775</v>
+        <v>0.8838913674420148</v>
       </c>
       <c r="D5">
-        <v>0.8938630367377549</v>
+        <v>0.8981318708506435</v>
       </c>
       <c r="E5">
-        <v>0.9011553818906999</v>
+        <v>0.9051554573415083</v>
       </c>
       <c r="F5">
-        <v>0.8684435484128483</v>
+        <v>0.8725530290184518</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026463698866593</v>
+        <v>1.026937756919055</v>
       </c>
       <c r="J5">
-        <v>0.9017709002945395</v>
+        <v>0.9062631262503907</v>
       </c>
       <c r="K5">
-        <v>0.9051748779229529</v>
+        <v>0.9093775065813809</v>
       </c>
       <c r="L5">
-        <v>0.9123546099129635</v>
+        <v>0.9162938953030428</v>
       </c>
       <c r="M5">
-        <v>0.8801669945346097</v>
+        <v>0.88420784000535</v>
+      </c>
+      <c r="N5">
+        <v>0.9075501238394998</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8807947320075424</v>
+        <v>0.8854331525479556</v>
       </c>
       <c r="D6">
-        <v>0.895310106809789</v>
+        <v>0.8995627984820634</v>
       </c>
       <c r="E6">
-        <v>0.9024832412752529</v>
+        <v>0.9064687934338003</v>
       </c>
       <c r="F6">
-        <v>0.8703304596293003</v>
+        <v>0.874416345838276</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026783947331852</v>
+        <v>1.027254325767357</v>
       </c>
       <c r="J6">
-        <v>0.9031818875468982</v>
+        <v>0.9076587259121116</v>
       </c>
       <c r="K6">
-        <v>0.9065555050273769</v>
+        <v>0.9107428036024009</v>
       </c>
       <c r="L6">
-        <v>0.9136187939600859</v>
+        <v>0.917544269717871</v>
       </c>
       <c r="M6">
-        <v>0.8819765783504927</v>
+        <v>0.8859949051232634</v>
+      </c>
+      <c r="N6">
+        <v>0.9089477054128179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8696650258488824</v>
+        <v>0.8744379042983308</v>
       </c>
       <c r="D7">
-        <v>0.8849801519048509</v>
+        <v>0.8893562945858585</v>
       </c>
       <c r="E7">
-        <v>0.8930089188890442</v>
+        <v>0.8971055594321596</v>
       </c>
       <c r="F7">
-        <v>0.8568235727972348</v>
+        <v>0.8610895870731853</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.024490953535136</v>
+        <v>1.024989404042458</v>
       </c>
       <c r="J7">
-        <v>0.8931055510848681</v>
+        <v>0.8977003504475682</v>
       </c>
       <c r="K7">
-        <v>0.8966948234100945</v>
+        <v>0.9009995230439897</v>
       </c>
       <c r="L7">
-        <v>0.9045932038434444</v>
+        <v>0.9086244671658101</v>
       </c>
       <c r="M7">
-        <v>0.8690205772202869</v>
+        <v>0.873210884325359</v>
+      </c>
+      <c r="N7">
+        <v>0.8989751879128732</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D8">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E8">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F8">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J8">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K8">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L8">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M8">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N8">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D9">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E9">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F9">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J9">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K9">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L9">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M9">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N9">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D10">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E10">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F10">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J10">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K10">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L10">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M10">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N10">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D11">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E11">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F11">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J11">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K11">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L11">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M11">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N11">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D12">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E12">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F12">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J12">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K12">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L12">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M12">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N12">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D13">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E13">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F13">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J13">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K13">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L13">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M13">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N13">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D14">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E14">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F14">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J14">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K14">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L14">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M14">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N14">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D15">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E15">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F15">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J15">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K15">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L15">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M15">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N15">
+        <v>0.8415334345274977</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D16">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E16">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F16">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J16">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K16">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L16">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M16">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N16">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D17">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E17">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F17">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J17">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K17">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L17">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M17">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N17">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D18">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E18">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F18">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J18">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K18">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L18">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M18">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N18">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D19">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E19">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F19">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J19">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K19">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L19">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M19">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N19">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D20">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E20">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F20">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J20">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K20">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L20">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M20">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N20">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D21">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E21">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F21">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J21">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K21">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L21">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M21">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N21">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D22">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E22">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F22">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J22">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K22">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L22">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M22">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N22">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D23">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E23">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F23">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J23">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K23">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L23">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M23">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N23">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D24">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E24">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F24">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J24">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K24">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L24">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M24">
-        <v>0.7919755416062241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N24">
+        <v>0.8415334345274977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8050760813075636</v>
+        <v>0.8113705956640369</v>
       </c>
       <c r="D25">
-        <v>0.8249514845481175</v>
+        <v>0.830734716388696</v>
       </c>
       <c r="E25">
-        <v>0.8381678867092364</v>
+        <v>0.8435319477113162</v>
       </c>
       <c r="F25">
-        <v>0.7765846418673487</v>
+        <v>0.7828860985850025</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010967110713095</v>
+        <v>1.011781394073699</v>
       </c>
       <c r="J25">
-        <v>0.8343788463078614</v>
+        <v>0.840340055260676</v>
       </c>
       <c r="K25">
-        <v>0.8391730700093996</v>
+        <v>0.8448285866171751</v>
       </c>
       <c r="L25">
-        <v>0.8521010345540361</v>
+        <v>0.8573514392243193</v>
       </c>
       <c r="M25">
-        <v>0.7919755416062241</v>
+        <v>0.7981135743952009</v>
+      </c>
+      <c r="N25">
+        <v>0.8415334345274977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7834390774119646</v>
+        <v>0.8956920173169783</v>
       </c>
       <c r="D2">
-        <v>0.8047274905781059</v>
+        <v>0.9053835064489324</v>
       </c>
       <c r="E2">
-        <v>0.8198805591659563</v>
+        <v>0.914585954604768</v>
       </c>
       <c r="F2">
-        <v>0.7472153554538122</v>
+        <v>0.8660098078681994</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005880181748237</v>
+        <v>1.032983944375785</v>
       </c>
       <c r="J2">
-        <v>0.8148074961193849</v>
+        <v>0.9215129533591632</v>
       </c>
       <c r="K2">
-        <v>0.8197978949754371</v>
+        <v>0.9183398679150071</v>
       </c>
       <c r="L2">
-        <v>0.8345882492543646</v>
+        <v>0.9273791030040864</v>
       </c>
       <c r="M2">
-        <v>0.7638473313709587</v>
+        <v>0.8797160903992709</v>
       </c>
       <c r="N2">
-        <v>0.8159646162236003</v>
+        <v>0.9228216074519452</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8478803323205368</v>
+        <v>0.9145357366603154</v>
       </c>
       <c r="D3">
-        <v>0.8646868957737865</v>
+        <v>0.9232267499116454</v>
       </c>
       <c r="E3">
-        <v>0.8745176688659376</v>
+        <v>0.9306980373123698</v>
       </c>
       <c r="F3">
-        <v>0.828530142678592</v>
+        <v>0.8891569694320424</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.019461579800702</v>
+        <v>1.034853321473537</v>
       </c>
       <c r="J3">
-        <v>0.8735948481324511</v>
+        <v>0.9376623104817929</v>
       </c>
       <c r="K3">
-        <v>0.8774040464810894</v>
+        <v>0.9349463065784177</v>
       </c>
       <c r="L3">
-        <v>0.8870551637046667</v>
+        <v>0.9423017998065935</v>
       </c>
       <c r="M3">
-        <v>0.8419565180298212</v>
+        <v>0.9014364553282127</v>
       </c>
       <c r="N3">
-        <v>0.8748354530195287</v>
+        <v>0.9389938985140471</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8743048959967568</v>
+        <v>0.9257362079093858</v>
       </c>
       <c r="D4">
-        <v>0.8892328018300515</v>
+        <v>0.9338436785913687</v>
       </c>
       <c r="E4">
-        <v>0.8969923339643235</v>
+        <v>0.9402898438470421</v>
       </c>
       <c r="F4">
-        <v>0.8609278267623485</v>
+        <v>0.9028667244975922</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024961906909049</v>
+        <v>1.03594581515528</v>
       </c>
       <c r="J4">
-        <v>0.8975798054857308</v>
+        <v>0.947251274569884</v>
       </c>
       <c r="K4">
-        <v>0.9008815657876913</v>
+        <v>0.9448120632016944</v>
       </c>
       <c r="L4">
-        <v>0.9085165268793887</v>
+        <v>0.9511666633604259</v>
       </c>
       <c r="M4">
-        <v>0.8730556761741368</v>
+        <v>0.9142984312894953</v>
       </c>
       <c r="N4">
-        <v>0.8988544717633631</v>
+        <v>0.9485964800310129</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8838913674420148</v>
+        <v>0.9302441357531733</v>
       </c>
       <c r="D5">
-        <v>0.8981318708506435</v>
+        <v>0.9381189905008619</v>
       </c>
       <c r="E5">
-        <v>0.9051554573415083</v>
+        <v>0.9441532028122598</v>
       </c>
       <c r="F5">
-        <v>0.8725530290184518</v>
+        <v>0.9083761151373767</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026937756919055</v>
+        <v>1.036380624330994</v>
       </c>
       <c r="J5">
-        <v>0.9062631262503907</v>
+        <v>0.9511080113380458</v>
       </c>
       <c r="K5">
-        <v>0.9093775065813809</v>
+        <v>0.9487813716167253</v>
       </c>
       <c r="L5">
-        <v>0.9162938953030428</v>
+        <v>0.9547329694093628</v>
       </c>
       <c r="M5">
-        <v>0.88420784000535</v>
+        <v>0.9194661031293268</v>
       </c>
       <c r="N5">
-        <v>0.9075501238394998</v>
+        <v>0.9524586938077597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8854331525479556</v>
+        <v>0.9309901521737314</v>
       </c>
       <c r="D6">
-        <v>0.8995627984820634</v>
+        <v>0.9388266331754153</v>
       </c>
       <c r="E6">
-        <v>0.9064687934338003</v>
+        <v>0.9447927017829788</v>
       </c>
       <c r="F6">
-        <v>0.874416345838276</v>
+        <v>0.9092874405258032</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027254325767357</v>
+        <v>1.036452281458149</v>
       </c>
       <c r="J6">
-        <v>0.9076587259121116</v>
+        <v>0.9517461042130736</v>
       </c>
       <c r="K6">
-        <v>0.9107428036024009</v>
+        <v>0.9494381614798507</v>
       </c>
       <c r="L6">
-        <v>0.917544269717871</v>
+        <v>0.9553230532436904</v>
       </c>
       <c r="M6">
-        <v>0.8859949051232634</v>
+        <v>0.9203208340575637</v>
       </c>
       <c r="N6">
-        <v>0.9089477054128179</v>
+        <v>0.9530976928478603</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8744379042983308</v>
+        <v>0.9257971905789181</v>
       </c>
       <c r="D7">
-        <v>0.8893562945858585</v>
+        <v>0.9339015059782354</v>
       </c>
       <c r="E7">
-        <v>0.8971055594321596</v>
+        <v>0.9403420961824559</v>
       </c>
       <c r="F7">
-        <v>0.8610895870731853</v>
+        <v>0.9029412850836761</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.024989404042458</v>
+        <v>1.035951717267676</v>
       </c>
       <c r="J7">
-        <v>0.8977003504475682</v>
+        <v>0.9473034586212375</v>
       </c>
       <c r="K7">
-        <v>0.9009995230439897</v>
+        <v>0.944865765500057</v>
       </c>
       <c r="L7">
-        <v>0.9086244671658101</v>
+        <v>0.9512149147199336</v>
       </c>
       <c r="M7">
-        <v>0.873210884325359</v>
+        <v>0.9143683718152065</v>
       </c>
       <c r="N7">
-        <v>0.8989751879128732</v>
+        <v>0.9486487381897052</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8113705956640369</v>
+        <v>0.9022917885197606</v>
       </c>
       <c r="D8">
-        <v>0.830734716388696</v>
+        <v>0.9116301274641758</v>
       </c>
       <c r="E8">
-        <v>0.8435319477113162</v>
+        <v>0.9202251974156342</v>
       </c>
       <c r="F8">
-        <v>0.7828860985850025</v>
+        <v>0.8741298825674365</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.011781394073699</v>
+        <v>1.033642455057626</v>
       </c>
       <c r="J8">
-        <v>0.840340055260676</v>
+        <v>0.9271711117561809</v>
       </c>
       <c r="K8">
-        <v>0.8448285866171751</v>
+        <v>0.9241569521994943</v>
       </c>
       <c r="L8">
-        <v>0.8573514392243193</v>
+        <v>0.9326063923182638</v>
       </c>
       <c r="M8">
-        <v>0.7981135743952009</v>
+        <v>0.8873359432675368</v>
       </c>
       <c r="N8">
-        <v>0.8415334345274977</v>
+        <v>0.9284878010828879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8113705956640369</v>
+        <v>0.8506947376534868</v>
       </c>
       <c r="D9">
-        <v>0.830734716388696</v>
+        <v>0.8628787804043616</v>
       </c>
       <c r="E9">
-        <v>0.8435319477113162</v>
+        <v>0.8762632224826467</v>
       </c>
       <c r="F9">
-        <v>0.7828860985850025</v>
+        <v>0.810150125151623</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011781394073699</v>
+        <v>1.028429417731431</v>
       </c>
       <c r="J9">
-        <v>0.840340055260676</v>
+        <v>0.8828992326388133</v>
       </c>
       <c r="K9">
-        <v>0.8448285866171751</v>
+        <v>0.8786720079220404</v>
       </c>
       <c r="L9">
-        <v>0.8573514392243193</v>
+        <v>0.8917431257643974</v>
       </c>
       <c r="M9">
-        <v>0.7981135743952009</v>
+        <v>0.8273158532341698</v>
       </c>
       <c r="N9">
-        <v>0.8415334345274977</v>
+        <v>0.8841530508191181</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8113705956640369</v>
+        <v>0.802278061663568</v>
       </c>
       <c r="D10">
-        <v>0.830734716388696</v>
+        <v>0.8173269506441743</v>
       </c>
       <c r="E10">
-        <v>0.8435319477113162</v>
+        <v>0.8353236885284345</v>
       </c>
       <c r="F10">
-        <v>0.7828860985850025</v>
+        <v>0.7486121687744143</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011781394073699</v>
+        <v>1.023503755237003</v>
       </c>
       <c r="J10">
-        <v>0.840340055260676</v>
+        <v>0.8413315832840299</v>
       </c>
       <c r="K10">
-        <v>0.8448285866171751</v>
+        <v>0.8360197708160326</v>
       </c>
       <c r="L10">
-        <v>0.8573514392243193</v>
+        <v>0.8534750284893298</v>
       </c>
       <c r="M10">
-        <v>0.7981135743952009</v>
+        <v>0.7697141764900158</v>
       </c>
       <c r="N10">
-        <v>0.8415334345274977</v>
+        <v>0.8425263706343747</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8113705956640369</v>
+        <v>0.7729249156190563</v>
       </c>
       <c r="D11">
-        <v>0.830734716388696</v>
+        <v>0.7898128600176413</v>
       </c>
       <c r="E11">
-        <v>0.8435319477113162</v>
+        <v>0.8106852983890653</v>
       </c>
       <c r="F11">
-        <v>0.7828860985850025</v>
+        <v>0.7101729380107659</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011781394073699</v>
+        <v>1.020550957977705</v>
       </c>
       <c r="J11">
-        <v>0.840340055260676</v>
+        <v>0.8161404342933677</v>
       </c>
       <c r="K11">
-        <v>0.8448285866171751</v>
+        <v>0.8101941743333455</v>
       </c>
       <c r="L11">
-        <v>0.8573514392243193</v>
+        <v>0.8303476352791422</v>
       </c>
       <c r="M11">
-        <v>0.7981135743952009</v>
+        <v>0.7338647250525946</v>
       </c>
       <c r="N11">
-        <v>0.8415334345274977</v>
+        <v>0.8172994473226807</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8113705956640369</v>
+        <v>0.7591258104418587</v>
       </c>
       <c r="D12">
-        <v>0.830734716388696</v>
+        <v>0.7769062444256415</v>
       </c>
       <c r="E12">
-        <v>0.8435319477113162</v>
+        <v>0.7991565472454086</v>
       </c>
       <c r="F12">
-        <v>0.7828860985850025</v>
+        <v>0.6916859285871689</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011781394073699</v>
+        <v>1.019178043119452</v>
       </c>
       <c r="J12">
-        <v>0.840340055260676</v>
+        <v>0.8043012245306013</v>
       </c>
       <c r="K12">
-        <v>0.8448285866171751</v>
+        <v>0.7980629548767502</v>
       </c>
       <c r="L12">
-        <v>0.8573514392243193</v>
+        <v>0.8194993962603544</v>
       </c>
       <c r="M12">
-        <v>0.7981135743952009</v>
+        <v>0.716675190747827</v>
       </c>
       <c r="N12">
-        <v>0.8415334345274977</v>
+        <v>0.8054434245240746</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8113705956640369</v>
+        <v>0.7622889574593433</v>
       </c>
       <c r="D13">
-        <v>0.830734716388696</v>
+        <v>0.7798632197046352</v>
       </c>
       <c r="E13">
-        <v>0.8435319477113162</v>
+        <v>0.801796058029252</v>
       </c>
       <c r="F13">
-        <v>0.7828860985850025</v>
+        <v>0.6959513042935901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011781394073699</v>
+        <v>1.019491764233578</v>
       </c>
       <c r="J13">
-        <v>0.840340055260676</v>
+        <v>0.8070149700771657</v>
       </c>
       <c r="K13">
-        <v>0.8448285866171751</v>
+        <v>0.8008432668143688</v>
       </c>
       <c r="L13">
-        <v>0.8573514392243193</v>
+        <v>0.8219846723752365</v>
       </c>
       <c r="M13">
-        <v>0.7981135743952009</v>
+        <v>0.720637736096002</v>
       </c>
       <c r="N13">
-        <v>0.8415334345274977</v>
+        <v>0.8081610239005862</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8113705956640369</v>
+        <v>0.7718660758409056</v>
       </c>
       <c r="D14">
-        <v>0.830734716388696</v>
+        <v>0.7888218663243215</v>
       </c>
       <c r="E14">
-        <v>0.8435319477113162</v>
+        <v>0.8097993980073988</v>
       </c>
       <c r="F14">
-        <v>0.7828860985850025</v>
+        <v>0.7087650186246792</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011781394073699</v>
+        <v>1.020445225514829</v>
       </c>
       <c r="J14">
-        <v>0.840340055260676</v>
+        <v>0.8152319192132177</v>
       </c>
       <c r="K14">
-        <v>0.8448285866171751</v>
+        <v>0.809263106213482</v>
       </c>
       <c r="L14">
-        <v>0.8573514392243193</v>
+        <v>0.8295146487303837</v>
       </c>
       <c r="M14">
-        <v>0.7981135743952009</v>
+        <v>0.7325542900225632</v>
       </c>
       <c r="N14">
-        <v>0.8415334345274977</v>
+        <v>0.8163896420469087</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8113705956640369</v>
+        <v>0.7772793639815841</v>
       </c>
       <c r="D15">
-        <v>0.830734716388696</v>
+        <v>0.7938894047789824</v>
       </c>
       <c r="E15">
-        <v>0.8435319477113162</v>
+        <v>0.8143307077137125</v>
       </c>
       <c r="F15">
-        <v>0.7828860985850025</v>
+        <v>0.7159457602954871</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011781394073699</v>
+        <v>1.020986412949509</v>
       </c>
       <c r="J15">
-        <v>0.840340055260676</v>
+        <v>0.8198768068869365</v>
       </c>
       <c r="K15">
-        <v>0.8448285866171751</v>
+        <v>0.8140235451700055</v>
       </c>
       <c r="L15">
-        <v>0.8573514392243193</v>
+        <v>0.8337742466287188</v>
       </c>
       <c r="M15">
-        <v>0.7981135743952009</v>
+        <v>0.7392399708891446</v>
       </c>
       <c r="N15">
-        <v>0.8415334345274977</v>
+        <v>0.8210411259939003</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8113705956640369</v>
+        <v>0.8039651589958202</v>
       </c>
       <c r="D16">
-        <v>0.830734716388696</v>
+        <v>0.8189107643216296</v>
       </c>
       <c r="E16">
-        <v>0.8435319477113162</v>
+        <v>0.8367442604228581</v>
       </c>
       <c r="F16">
-        <v>0.7828860985850025</v>
+        <v>0.750790946047254</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011781394073699</v>
+        <v>1.023674557940568</v>
       </c>
       <c r="J16">
-        <v>0.840340055260676</v>
+        <v>0.842779778470748</v>
       </c>
       <c r="K16">
-        <v>0.8448285866171751</v>
+        <v>0.8375049612901162</v>
       </c>
       <c r="L16">
-        <v>0.8573514392243193</v>
+        <v>0.8548062274007172</v>
       </c>
       <c r="M16">
-        <v>0.7981135743952009</v>
+        <v>0.7717498057876143</v>
       </c>
       <c r="N16">
-        <v>0.8415334345274977</v>
+        <v>0.8439766224243683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8113705956640369</v>
+        <v>0.8179242461089958</v>
       </c>
       <c r="D17">
-        <v>0.830734716388696</v>
+        <v>0.8320251006522301</v>
       </c>
       <c r="E17">
-        <v>0.8435319477113162</v>
+        <v>0.8485155252657445</v>
       </c>
       <c r="F17">
-        <v>0.7828860985850025</v>
+        <v>0.7687112089254639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011781394073699</v>
+        <v>1.025091130286836</v>
       </c>
       <c r="J17">
-        <v>0.840340055260676</v>
+        <v>0.8547632576668672</v>
       </c>
       <c r="K17">
-        <v>0.8448285866171751</v>
+        <v>0.8497967240189301</v>
       </c>
       <c r="L17">
-        <v>0.8573514392243193</v>
+        <v>0.8658277052140717</v>
       </c>
       <c r="M17">
-        <v>0.7981135743952009</v>
+        <v>0.788504886002848</v>
       </c>
       <c r="N17">
-        <v>0.8415334345274977</v>
+        <v>0.8559771195354702</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8113705956640369</v>
+        <v>0.8253913143723983</v>
       </c>
       <c r="D18">
-        <v>0.830734716388696</v>
+        <v>0.8390473646018762</v>
       </c>
       <c r="E18">
-        <v>0.8435319477113162</v>
+        <v>0.8548245900774221</v>
       </c>
       <c r="F18">
-        <v>0.7828860985850025</v>
+        <v>0.7782252378038734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011781394073699</v>
+        <v>1.025850837930499</v>
       </c>
       <c r="J18">
-        <v>0.840340055260676</v>
+        <v>0.8611741401819932</v>
       </c>
       <c r="K18">
-        <v>0.8448285866171751</v>
+        <v>0.8563741210837056</v>
       </c>
       <c r="L18">
-        <v>0.8573514392243193</v>
+        <v>0.8717281700964089</v>
       </c>
       <c r="M18">
-        <v>0.7981135743952009</v>
+        <v>0.7974082593341116</v>
       </c>
       <c r="N18">
-        <v>0.8415334345274977</v>
+        <v>0.8623971062391063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8113705956640369</v>
+        <v>0.8278417098366841</v>
       </c>
       <c r="D19">
-        <v>0.830734716388696</v>
+        <v>0.8413528475564771</v>
       </c>
       <c r="E19">
-        <v>0.8435319477113162</v>
+        <v>0.8568967772646001</v>
       </c>
       <c r="F19">
-        <v>0.7828860985850025</v>
+        <v>0.78133735944432</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011781394073699</v>
+        <v>1.026100355800465</v>
       </c>
       <c r="J19">
-        <v>0.840340055260676</v>
+        <v>0.86327799876781</v>
       </c>
       <c r="K19">
-        <v>0.8448285866171751</v>
+        <v>0.8585328692057519</v>
       </c>
       <c r="L19">
-        <v>0.8573514392243193</v>
+        <v>0.8736651305412291</v>
       </c>
       <c r="M19">
-        <v>0.7981135743952009</v>
+        <v>0.8003216937930117</v>
       </c>
       <c r="N19">
-        <v>0.8415334345274977</v>
+        <v>0.8645039525454306</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8113705956640369</v>
+        <v>0.8165013496028324</v>
       </c>
       <c r="D20">
-        <v>0.830734716388696</v>
+        <v>0.8306875183792145</v>
       </c>
       <c r="E20">
-        <v>0.8435319477113162</v>
+        <v>0.8473142486635056</v>
       </c>
       <c r="F20">
-        <v>0.7828860985850025</v>
+        <v>0.7668928232102706</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011781394073699</v>
+        <v>1.024946494896226</v>
       </c>
       <c r="J20">
-        <v>0.840340055260676</v>
+        <v>0.8535416645443238</v>
       </c>
       <c r="K20">
-        <v>0.8448285866171751</v>
+        <v>0.8485435279266215</v>
       </c>
       <c r="L20">
-        <v>0.8573514392243193</v>
+        <v>0.8647036962465134</v>
       </c>
       <c r="M20">
-        <v>0.7981135743952009</v>
+        <v>0.7868038031970008</v>
       </c>
       <c r="N20">
-        <v>0.8415334345274977</v>
+        <v>0.8547537916105739</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8113705956640369</v>
+        <v>0.7691572195750443</v>
       </c>
       <c r="D21">
-        <v>0.830734716388696</v>
+        <v>0.78628706416713</v>
       </c>
       <c r="E21">
-        <v>0.8435319477113162</v>
+        <v>0.807533926073579</v>
       </c>
       <c r="F21">
-        <v>0.7828860985850025</v>
+        <v>0.7051553979034667</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011781394073699</v>
+        <v>1.020175009611279</v>
       </c>
       <c r="J21">
-        <v>0.840340055260676</v>
+        <v>0.8129076955369882</v>
       </c>
       <c r="K21">
-        <v>0.8448285866171751</v>
+        <v>0.8068812936813684</v>
       </c>
       <c r="L21">
-        <v>0.8573514392243193</v>
+        <v>0.8273840271102151</v>
       </c>
       <c r="M21">
-        <v>0.7981135743952009</v>
+        <v>0.7291955612930363</v>
       </c>
       <c r="N21">
-        <v>0.8415334345274977</v>
+        <v>0.8140621177064665</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8113705956640369</v>
+        <v>0.7123883401383732</v>
       </c>
       <c r="D22">
-        <v>0.830734716388696</v>
+        <v>0.7333206454684691</v>
       </c>
       <c r="E22">
-        <v>0.8435319477113162</v>
+        <v>0.760393738262871</v>
       </c>
       <c r="F22">
-        <v>0.7828860985850025</v>
+        <v>0.6260956628289118</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011781394073699</v>
+        <v>1.014622448105599</v>
       </c>
       <c r="J22">
-        <v>0.840340055260676</v>
+        <v>0.7641950787586907</v>
       </c>
       <c r="K22">
-        <v>0.8448285866171751</v>
+        <v>0.7570027695532547</v>
       </c>
       <c r="L22">
-        <v>0.8573514392243193</v>
+        <v>0.7828801027077271</v>
       </c>
       <c r="M22">
-        <v>0.7981135743952009</v>
+        <v>0.6560747719451709</v>
       </c>
       <c r="N22">
-        <v>0.8415334345274977</v>
+        <v>0.7652803234249287</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8113705956640369</v>
+        <v>0.7487909400672252</v>
       </c>
       <c r="D23">
-        <v>0.830734716388696</v>
+        <v>0.7672515413702328</v>
       </c>
       <c r="E23">
-        <v>0.8435319477113162</v>
+        <v>0.7905462250960913</v>
       </c>
       <c r="F23">
-        <v>0.7828860985850025</v>
+        <v>0.6776224228092652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011781394073699</v>
+        <v>1.018157423978948</v>
       </c>
       <c r="J23">
-        <v>0.840340055260676</v>
+        <v>0.7954349672861947</v>
       </c>
       <c r="K23">
-        <v>0.8448285866171751</v>
+        <v>0.788980811164449</v>
       </c>
       <c r="L23">
-        <v>0.8573514392243193</v>
+        <v>0.8113854567531505</v>
       </c>
       <c r="M23">
-        <v>0.7981135743952009</v>
+        <v>0.7036263198128297</v>
       </c>
       <c r="N23">
-        <v>0.8415334345274977</v>
+        <v>0.7965645761774072</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8113705956640369</v>
+        <v>0.817146312367797</v>
       </c>
       <c r="D24">
-        <v>0.830734716388696</v>
+        <v>0.8312937882573393</v>
       </c>
       <c r="E24">
-        <v>0.8435319477113162</v>
+        <v>0.8478587183951045</v>
       </c>
       <c r="F24">
-        <v>0.7828860985850025</v>
+        <v>0.7677172730289836</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011781394073699</v>
+        <v>1.025012048615575</v>
       </c>
       <c r="J24">
-        <v>0.840340055260676</v>
+        <v>0.8540953797661583</v>
       </c>
       <c r="K24">
-        <v>0.8448285866171751</v>
+        <v>0.849111562932077</v>
       </c>
       <c r="L24">
-        <v>0.8573514392243193</v>
+        <v>0.8652131660831844</v>
       </c>
       <c r="M24">
-        <v>0.7981135743952009</v>
+        <v>0.7875750438541783</v>
       </c>
       <c r="N24">
-        <v>0.8415334345274977</v>
+        <v>0.8553082931715357</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8113705956640369</v>
+        <v>0.8657168940000067</v>
       </c>
       <c r="D25">
-        <v>0.830734716388696</v>
+        <v>0.8770517118213821</v>
       </c>
       <c r="E25">
-        <v>0.8435319477113162</v>
+        <v>0.8890309243152403</v>
       </c>
       <c r="F25">
-        <v>0.7828860985850025</v>
+        <v>0.8289096287023414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011781394073699</v>
+        <v>1.029958219617402</v>
       </c>
       <c r="J25">
-        <v>0.840340055260676</v>
+        <v>0.8957951081029418</v>
       </c>
       <c r="K25">
-        <v>0.8448285866171751</v>
+        <v>0.8919144598306098</v>
       </c>
       <c r="L25">
-        <v>0.8573514392243193</v>
+        <v>0.9036365857752563</v>
       </c>
       <c r="M25">
-        <v>0.7981135743952009</v>
+        <v>0.8449070039175739</v>
       </c>
       <c r="N25">
-        <v>0.8415334345274977</v>
+        <v>0.8970672399055829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8956920173169783</v>
+        <v>0.9855285699263766</v>
       </c>
       <c r="D2">
-        <v>0.9053835064489324</v>
+        <v>0.9946690875972458</v>
       </c>
       <c r="E2">
-        <v>0.914585954604768</v>
+        <v>0.9940306870861558</v>
       </c>
       <c r="F2">
-        <v>0.8660098078681994</v>
+        <v>0.9615984647659429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032983944375785</v>
+        <v>1.041568608361252</v>
       </c>
       <c r="J2">
-        <v>0.9215129533591632</v>
+        <v>1.008150905690618</v>
       </c>
       <c r="K2">
-        <v>0.9183398679150071</v>
+        <v>1.006203193529006</v>
       </c>
       <c r="L2">
-        <v>0.9273791030040864</v>
+        <v>1.005573815161567</v>
       </c>
       <c r="M2">
-        <v>0.8797160903992709</v>
+        <v>0.9736200497256996</v>
       </c>
       <c r="N2">
-        <v>0.9228216074519452</v>
+        <v>1.006829255867288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9145357366603154</v>
+        <v>0.9899940357473237</v>
       </c>
       <c r="D3">
-        <v>0.9232267499116454</v>
+        <v>0.9982671224084109</v>
       </c>
       <c r="E3">
-        <v>0.9306980373123698</v>
+        <v>0.9975662267302996</v>
       </c>
       <c r="F3">
-        <v>0.8891569694320424</v>
+        <v>0.9688185792352291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034853321473537</v>
+        <v>1.042632324680204</v>
       </c>
       <c r="J3">
-        <v>0.9376623104817929</v>
+        <v>1.010761240580824</v>
       </c>
       <c r="K3">
-        <v>0.9349463065784177</v>
+        <v>1.008922223850136</v>
       </c>
       <c r="L3">
-        <v>0.9423017998065935</v>
+        <v>1.008230343148904</v>
       </c>
       <c r="M3">
-        <v>0.9014364553282127</v>
+        <v>0.9798666160256907</v>
       </c>
       <c r="N3">
-        <v>0.9389938985140471</v>
+        <v>1.007692632419984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9257362079093858</v>
+        <v>0.9928156800560426</v>
       </c>
       <c r="D4">
-        <v>0.9338436785913687</v>
+        <v>1.000545460248115</v>
       </c>
       <c r="E4">
-        <v>0.9402898438470421</v>
+        <v>0.9998062289465424</v>
       </c>
       <c r="F4">
-        <v>0.9028667244975922</v>
+        <v>0.9733678346868829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03594581515528</v>
+        <v>1.043285807014643</v>
       </c>
       <c r="J4">
-        <v>0.947251274569884</v>
+        <v>1.01240496413509</v>
       </c>
       <c r="K4">
-        <v>0.9448120632016944</v>
+        <v>1.010637306500374</v>
       </c>
       <c r="L4">
-        <v>0.9511666633604259</v>
+        <v>1.009906993176866</v>
       </c>
       <c r="M4">
-        <v>0.9142984312894953</v>
+        <v>0.9837986813795988</v>
       </c>
       <c r="N4">
-        <v>0.9485964800310129</v>
+        <v>1.008236291552965</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9302441357531733</v>
+        <v>0.9939862849962107</v>
       </c>
       <c r="D5">
-        <v>0.9381189905008619</v>
+        <v>1.001491782156142</v>
       </c>
       <c r="E5">
-        <v>0.9441532028122598</v>
+        <v>1.000736919960841</v>
       </c>
       <c r="F5">
-        <v>0.9083761151373767</v>
+        <v>0.9752524935579492</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036380624330994</v>
+        <v>1.043552372077167</v>
       </c>
       <c r="J5">
-        <v>0.9511080113380458</v>
+        <v>1.013085502085057</v>
       </c>
       <c r="K5">
-        <v>0.9487813716167253</v>
+        <v>1.011348086837684</v>
       </c>
       <c r="L5">
-        <v>0.9547329694093628</v>
+        <v>1.010602081992974</v>
       </c>
       <c r="M5">
-        <v>0.9194661031293268</v>
+        <v>0.985426706385059</v>
       </c>
       <c r="N5">
-        <v>0.9524586938077597</v>
+        <v>1.008461374758327</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9309901521737314</v>
+        <v>0.9941819363958847</v>
       </c>
       <c r="D6">
-        <v>0.9388266331754153</v>
+        <v>1.001650012158963</v>
       </c>
       <c r="E6">
-        <v>0.9447927017829788</v>
+        <v>1.000892553431485</v>
       </c>
       <c r="F6">
-        <v>0.9092874405258032</v>
+        <v>0.9755673449389662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036452281458149</v>
+        <v>1.043596655959565</v>
       </c>
       <c r="J6">
-        <v>0.9517461042130736</v>
+        <v>1.013199162976618</v>
       </c>
       <c r="K6">
-        <v>0.9494381614798507</v>
+        <v>1.011466839744363</v>
       </c>
       <c r="L6">
-        <v>0.9553230532436904</v>
+        <v>1.010718227086605</v>
       </c>
       <c r="M6">
-        <v>0.9203208340575637</v>
+        <v>0.9856986277974036</v>
       </c>
       <c r="N6">
-        <v>0.9530976928478603</v>
+        <v>1.008498967037181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9257971905789181</v>
+        <v>0.9928313822975326</v>
       </c>
       <c r="D7">
-        <v>0.9339015059782354</v>
+        <v>1.000558149639761</v>
       </c>
       <c r="E7">
-        <v>0.9403420961824559</v>
+        <v>0.9998187075930461</v>
       </c>
       <c r="F7">
-        <v>0.9029412850836761</v>
+        <v>0.9733931250978859</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035951717267676</v>
+        <v>1.043289400704804</v>
       </c>
       <c r="J7">
-        <v>0.9473034586212375</v>
+        <v>1.012414098235908</v>
       </c>
       <c r="K7">
-        <v>0.944865765500057</v>
+        <v>1.010646843749578</v>
       </c>
       <c r="L7">
-        <v>0.9512149147199336</v>
+        <v>1.009916318945952</v>
       </c>
       <c r="M7">
-        <v>0.9143683718152065</v>
+        <v>0.983820531785684</v>
       </c>
       <c r="N7">
-        <v>0.9486487381897052</v>
+        <v>1.008239312610589</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9022917885197606</v>
+        <v>0.987052121135896</v>
       </c>
       <c r="D8">
-        <v>0.9116301274641758</v>
+        <v>0.9958956509017982</v>
       </c>
       <c r="E8">
-        <v>0.9202251974156342</v>
+        <v>0.9952356831469052</v>
       </c>
       <c r="F8">
-        <v>0.8741298825674365</v>
+        <v>0.9640648773128601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033642455057626</v>
+        <v>1.041935414122955</v>
       </c>
       <c r="J8">
-        <v>0.9271711117561809</v>
+        <v>1.009042698895016</v>
       </c>
       <c r="K8">
-        <v>0.9241569521994943</v>
+        <v>1.007131506737996</v>
       </c>
       <c r="L8">
-        <v>0.9326063923182638</v>
+        <v>1.006480579244461</v>
       </c>
       <c r="M8">
-        <v>0.8873359432675368</v>
+        <v>0.9757546655059154</v>
       </c>
       <c r="N8">
-        <v>0.9284878010828879</v>
+        <v>1.007124219747189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8506947376534868</v>
+        <v>0.9763190114084885</v>
       </c>
       <c r="D9">
-        <v>0.8628787804043616</v>
+        <v>0.9872768861426634</v>
       </c>
       <c r="E9">
-        <v>0.8762632224826467</v>
+        <v>0.9867739523552346</v>
       </c>
       <c r="F9">
-        <v>0.810150125151623</v>
+        <v>0.94661357234682</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028429417731431</v>
+        <v>1.039274333236074</v>
       </c>
       <c r="J9">
-        <v>0.8828992326388133</v>
+        <v>1.002736642378905</v>
       </c>
       <c r="K9">
-        <v>0.8786720079220404</v>
+        <v>1.000579815945904</v>
       </c>
       <c r="L9">
-        <v>0.8917431257643974</v>
+        <v>1.000085320793858</v>
       </c>
       <c r="M9">
-        <v>0.8273158532341698</v>
+        <v>0.9606365697115539</v>
       </c>
       <c r="N9">
-        <v>0.8841530508191181</v>
+        <v>1.005038515543181</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.802278061663568</v>
+        <v>0.9687487573981483</v>
       </c>
       <c r="D10">
-        <v>0.8173269506441743</v>
+        <v>0.9812279831726644</v>
       </c>
       <c r="E10">
-        <v>0.8353236885284345</v>
+        <v>0.9808425255169726</v>
       </c>
       <c r="F10">
-        <v>0.7486121687744143</v>
+        <v>0.934182151682149</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023503755237003</v>
+        <v>1.037302158282281</v>
       </c>
       <c r="J10">
-        <v>0.8413315832840299</v>
+        <v>0.9982595965481073</v>
       </c>
       <c r="K10">
-        <v>0.8360197708160326</v>
+        <v>0.9959446506201159</v>
       </c>
       <c r="L10">
-        <v>0.8534750284893298</v>
+        <v>0.9955665088143476</v>
       </c>
       <c r="M10">
-        <v>0.7697141764900158</v>
+        <v>0.9498509473408505</v>
       </c>
       <c r="N10">
-        <v>0.8425263706343747</v>
+        <v>1.003557901035629</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7729249156190563</v>
+        <v>0.9653610027391067</v>
       </c>
       <c r="D11">
-        <v>0.7898128600176413</v>
+        <v>0.9785288220982031</v>
       </c>
       <c r="E11">
-        <v>0.8106852983890653</v>
+        <v>0.97819761271873</v>
       </c>
       <c r="F11">
-        <v>0.7101729380107659</v>
+        <v>0.9285803616864436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020550957977705</v>
+        <v>1.036397895382715</v>
       </c>
       <c r="J11">
-        <v>0.8161404342933677</v>
+        <v>0.9962493404800512</v>
       </c>
       <c r="K11">
-        <v>0.8101941743333455</v>
+        <v>0.9938673397815755</v>
       </c>
       <c r="L11">
-        <v>0.8303476352791422</v>
+        <v>0.993542745200992</v>
       </c>
       <c r="M11">
-        <v>0.7338647250525946</v>
+        <v>0.9449877119549328</v>
       </c>
       <c r="N11">
-        <v>0.8172994473226807</v>
+        <v>1.002893151022781</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7591258104418587</v>
+        <v>0.9640850727374485</v>
       </c>
       <c r="D12">
-        <v>0.7769062444256415</v>
+        <v>0.9775134623656392</v>
       </c>
       <c r="E12">
-        <v>0.7991565472454086</v>
+        <v>0.9772029443905619</v>
       </c>
       <c r="F12">
-        <v>0.6916859285871689</v>
+        <v>0.9264638304177277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019178043119452</v>
+        <v>1.036054141435319</v>
       </c>
       <c r="J12">
-        <v>0.8043012245306013</v>
+        <v>0.9954912199819365</v>
       </c>
       <c r="K12">
-        <v>0.7980629548767502</v>
+        <v>0.9930845323780113</v>
       </c>
       <c r="L12">
-        <v>0.8194993962603544</v>
+        <v>0.9927803323201465</v>
       </c>
       <c r="M12">
-        <v>0.716675190747827</v>
+        <v>0.9431498452767545</v>
       </c>
       <c r="N12">
-        <v>0.8054434245240746</v>
+        <v>1.002642469008714</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7622889574593433</v>
+        <v>0.9643595773393503</v>
       </c>
       <c r="D13">
-        <v>0.7798632197046352</v>
+        <v>0.9777318513888419</v>
       </c>
       <c r="E13">
-        <v>0.801796058029252</v>
+        <v>0.9774168699735289</v>
       </c>
       <c r="F13">
-        <v>0.6959513042935901</v>
+        <v>0.926919502672562</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019491764233578</v>
+        <v>1.036128239351044</v>
       </c>
       <c r="J13">
-        <v>0.8070149700771657</v>
+        <v>0.9956543674899906</v>
       </c>
       <c r="K13">
-        <v>0.8008432668143688</v>
+        <v>0.9932529651991858</v>
       </c>
       <c r="L13">
-        <v>0.8219846723752365</v>
+        <v>0.9929443671063848</v>
       </c>
       <c r="M13">
-        <v>0.720637736096002</v>
+        <v>0.9435455393107417</v>
       </c>
       <c r="N13">
-        <v>0.8081610239005862</v>
+        <v>1.002696415151136</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7718660758409056</v>
+        <v>0.9652558988933774</v>
       </c>
       <c r="D14">
-        <v>0.7888218663243215</v>
+        <v>0.9784451573232468</v>
       </c>
       <c r="E14">
-        <v>0.8097993980073988</v>
+        <v>0.9781156470564275</v>
       </c>
       <c r="F14">
-        <v>0.7087650186246792</v>
+        <v>0.9284061563120397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020445225514829</v>
+        <v>1.03636964305143</v>
       </c>
       <c r="J14">
-        <v>0.8152319192132177</v>
+        <v>0.9961869110220931</v>
       </c>
       <c r="K14">
-        <v>0.809263106213482</v>
+        <v>0.9938028651516788</v>
       </c>
       <c r="L14">
-        <v>0.8295146487303837</v>
+        <v>0.9934799459134863</v>
       </c>
       <c r="M14">
-        <v>0.7325542900225632</v>
+        <v>0.9448364499615145</v>
       </c>
       <c r="N14">
-        <v>0.8163896420469087</v>
+        <v>1.002872507668225</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7772793639815841</v>
+        <v>0.9658057905737161</v>
       </c>
       <c r="D15">
-        <v>0.7938894047789824</v>
+        <v>0.978882932403619</v>
       </c>
       <c r="E15">
-        <v>0.8143307077137125</v>
+        <v>0.9785445432005664</v>
       </c>
       <c r="F15">
-        <v>0.7159457602954871</v>
+        <v>0.9293172996935286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020986412949509</v>
+        <v>1.036517327027797</v>
       </c>
       <c r="J15">
-        <v>0.8198768068869365</v>
+        <v>0.9965134944785394</v>
       </c>
       <c r="K15">
-        <v>0.8140235451700055</v>
+        <v>0.994140171920659</v>
       </c>
       <c r="L15">
-        <v>0.8337742466287188</v>
+        <v>0.9938084967536236</v>
       </c>
       <c r="M15">
-        <v>0.7392399708891446</v>
+        <v>0.9456275778125065</v>
       </c>
       <c r="N15">
-        <v>0.8210411259939003</v>
+        <v>1.002980498537513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8039651589958202</v>
+        <v>0.9689711891285768</v>
       </c>
       <c r="D16">
-        <v>0.8189107643216296</v>
+        <v>0.9814053699514824</v>
       </c>
       <c r="E16">
-        <v>0.8367442604228581</v>
+        <v>0.9810163860006308</v>
       </c>
       <c r="F16">
-        <v>0.750790946047254</v>
+        <v>0.9345490729529924</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023674557940568</v>
+        <v>1.037361085414409</v>
       </c>
       <c r="J16">
-        <v>0.842779778470748</v>
+        <v>0.9983914462448237</v>
       </c>
       <c r="K16">
-        <v>0.8375049612901162</v>
+        <v>0.9960809809267656</v>
       </c>
       <c r="L16">
-        <v>0.8548062274007172</v>
+        <v>0.9956993544769471</v>
       </c>
       <c r="M16">
-        <v>0.7717498057876143</v>
+        <v>0.9501694354014394</v>
       </c>
       <c r="N16">
-        <v>0.8439766224243683</v>
+        <v>1.003601502605849</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8179242461089958</v>
+        <v>0.970926640561628</v>
       </c>
       <c r="D17">
-        <v>0.8320251006522301</v>
+        <v>0.9829657097301616</v>
       </c>
       <c r="E17">
-        <v>0.8485155252657445</v>
+        <v>0.9825459164816405</v>
       </c>
       <c r="F17">
-        <v>0.7687112089254639</v>
+        <v>0.9377702826632069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025091130286836</v>
+        <v>1.037876674354914</v>
       </c>
       <c r="J17">
-        <v>0.8547632576668672</v>
+        <v>0.9995498060524871</v>
       </c>
       <c r="K17">
-        <v>0.8497967240189301</v>
+        <v>0.997279152704827</v>
       </c>
       <c r="L17">
-        <v>0.8658277052140717</v>
+        <v>0.9968670602321006</v>
       </c>
       <c r="M17">
-        <v>0.788504886002848</v>
+        <v>0.9529651103289564</v>
       </c>
       <c r="N17">
-        <v>0.8559771195354702</v>
+        <v>1.003984570178793</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8253913143723983</v>
+        <v>0.9720567072220473</v>
       </c>
       <c r="D18">
-        <v>0.8390473646018762</v>
+        <v>0.9838681708268376</v>
       </c>
       <c r="E18">
-        <v>0.8548245900774221</v>
+        <v>0.9834307307593798</v>
       </c>
       <c r="F18">
-        <v>0.7782252378038734</v>
+        <v>0.9396282509285141</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025850837930499</v>
+        <v>1.038172578358029</v>
       </c>
       <c r="J18">
-        <v>0.8611741401819932</v>
+        <v>1.000218590504856</v>
       </c>
       <c r="K18">
-        <v>0.8563741210837056</v>
+        <v>0.9979712944228974</v>
       </c>
       <c r="L18">
-        <v>0.8717281700964089</v>
+        <v>0.9975417349313959</v>
       </c>
       <c r="M18">
-        <v>0.7974082593341116</v>
+        <v>0.9545773391625288</v>
       </c>
       <c r="N18">
-        <v>0.8623971062391063</v>
+        <v>1.004205742135476</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8278417098366841</v>
+        <v>0.9724402781956969</v>
       </c>
       <c r="D19">
-        <v>0.8413528475564771</v>
+        <v>0.9841746096317716</v>
       </c>
       <c r="E19">
-        <v>0.8568967772646001</v>
+        <v>0.9837312064089767</v>
       </c>
       <c r="F19">
-        <v>0.78133735944432</v>
+        <v>0.9402583059538616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026100355800465</v>
+        <v>1.038272663712449</v>
       </c>
       <c r="J19">
-        <v>0.86327799876781</v>
+        <v>1.000445482783868</v>
       </c>
       <c r="K19">
-        <v>0.8585328692057519</v>
+        <v>0.9982061737073309</v>
       </c>
       <c r="L19">
-        <v>0.8736651305412291</v>
+        <v>0.9977707090233164</v>
       </c>
       <c r="M19">
-        <v>0.8003216937930117</v>
+        <v>0.9551240095083103</v>
       </c>
       <c r="N19">
-        <v>0.8645039525454306</v>
+        <v>1.004280778043825</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8165013496028324</v>
+        <v>0.9707179341916594</v>
       </c>
       <c r="D20">
-        <v>0.8306875183792145</v>
+        <v>0.9827990974816438</v>
       </c>
       <c r="E20">
-        <v>0.8473142486635056</v>
+        <v>0.9823825760654111</v>
       </c>
       <c r="F20">
-        <v>0.7668928232102706</v>
+        <v>0.9374268598608336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024946494896226</v>
+        <v>1.037821858333317</v>
       </c>
       <c r="J20">
-        <v>0.8535416645443238</v>
+        <v>0.9994262398478637</v>
       </c>
       <c r="K20">
-        <v>0.8485435279266215</v>
+        <v>0.9971513009714169</v>
       </c>
       <c r="L20">
-        <v>0.8647036962465134</v>
+        <v>0.9967424456425208</v>
       </c>
       <c r="M20">
-        <v>0.7868038031970008</v>
+        <v>0.9526670851237162</v>
       </c>
       <c r="N20">
-        <v>0.8547537916105739</v>
+        <v>1.003943706397381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7691572195750443</v>
+        <v>0.9649924485982188</v>
       </c>
       <c r="D21">
-        <v>0.78628706416713</v>
+        <v>0.9782354655151371</v>
       </c>
       <c r="E21">
-        <v>0.807533926073579</v>
+        <v>0.9779102184082018</v>
       </c>
       <c r="F21">
-        <v>0.7051553979034667</v>
+        <v>0.927969386404737</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020175009611279</v>
+        <v>1.036298775614364</v>
       </c>
       <c r="J21">
-        <v>0.8129076955369882</v>
+        <v>0.9960304111085985</v>
       </c>
       <c r="K21">
-        <v>0.8068812936813684</v>
+        <v>0.9936412480532346</v>
       </c>
       <c r="L21">
-        <v>0.8273840271102151</v>
+        <v>0.9933225318536706</v>
       </c>
       <c r="M21">
-        <v>0.7291955612930363</v>
+        <v>0.9444571980789151</v>
       </c>
       <c r="N21">
-        <v>0.8140621177064665</v>
+        <v>1.002820758543114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7123883401383732</v>
+        <v>0.9612903632531148</v>
       </c>
       <c r="D22">
-        <v>0.7333206454684691</v>
+        <v>0.975291808436242</v>
       </c>
       <c r="E22">
-        <v>0.760393738262871</v>
+        <v>0.9750270994213178</v>
       </c>
       <c r="F22">
-        <v>0.6260956628289118</v>
+        <v>0.9218144118574479</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014622448105599</v>
+        <v>1.035295438644281</v>
       </c>
       <c r="J22">
-        <v>0.7641950787586907</v>
+        <v>0.993828862164845</v>
       </c>
       <c r="K22">
-        <v>0.7570027695532547</v>
+        <v>0.9913691611408174</v>
       </c>
       <c r="L22">
-        <v>0.7828801027077271</v>
+        <v>0.9911100558151539</v>
       </c>
       <c r="M22">
-        <v>0.6560747719451709</v>
+        <v>0.9391119574267176</v>
       </c>
       <c r="N22">
-        <v>0.7652803234249287</v>
+        <v>1.002092816166134</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7487909400672252</v>
+        <v>0.963262985844845</v>
       </c>
       <c r="D23">
-        <v>0.7672515413702328</v>
+        <v>0.9768596145991995</v>
       </c>
       <c r="E23">
-        <v>0.7905462250960913</v>
+        <v>0.9765625024923306</v>
       </c>
       <c r="F23">
-        <v>0.6776224228092652</v>
+        <v>0.9250981182699071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018157423978948</v>
+        <v>1.035831772724747</v>
       </c>
       <c r="J23">
-        <v>0.7954349672861947</v>
+        <v>0.9950024802688069</v>
       </c>
       <c r="K23">
-        <v>0.788980811164449</v>
+        <v>0.9925800483806941</v>
       </c>
       <c r="L23">
-        <v>0.8113854567531505</v>
+        <v>0.9922890532587882</v>
       </c>
       <c r="M23">
-        <v>0.7036263198128297</v>
+        <v>0.9419638460924754</v>
       </c>
       <c r="N23">
-        <v>0.7965645761774072</v>
+        <v>1.002480865052152</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.817146312367797</v>
+        <v>0.9708122720324306</v>
       </c>
       <c r="D24">
-        <v>0.8312937882573393</v>
+        <v>0.9828744059970601</v>
       </c>
       <c r="E24">
-        <v>0.8478587183951045</v>
+        <v>0.982456405182735</v>
       </c>
       <c r="F24">
-        <v>0.7677172730289836</v>
+        <v>0.9375821022434461</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025012048615575</v>
+        <v>1.037846642237865</v>
       </c>
       <c r="J24">
-        <v>0.8540953797661583</v>
+        <v>0.9994820952705177</v>
       </c>
       <c r="K24">
-        <v>0.849111562932077</v>
+        <v>0.997209092421626</v>
       </c>
       <c r="L24">
-        <v>0.8652131660831844</v>
+        <v>0.9967987734316637</v>
       </c>
       <c r="M24">
-        <v>0.7875750438541783</v>
+        <v>0.9528018066925784</v>
       </c>
       <c r="N24">
-        <v>0.8553082931715357</v>
+        <v>1.003962177964701</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8657168940000067</v>
+        <v>0.979163329687836</v>
       </c>
       <c r="D25">
-        <v>0.8770517118213821</v>
+        <v>0.9895559352450406</v>
       </c>
       <c r="E25">
-        <v>0.8890309243152403</v>
+        <v>0.9890102585756863</v>
       </c>
       <c r="F25">
-        <v>0.8289096287023414</v>
+        <v>0.9512564693005047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029958219617402</v>
+        <v>1.039996174999644</v>
       </c>
       <c r="J25">
-        <v>0.8957951081029418</v>
+        <v>1.004412870458787</v>
       </c>
       <c r="K25">
-        <v>0.8919144598306098</v>
+        <v>1.002318574795034</v>
       </c>
       <c r="L25">
-        <v>0.9036365857752563</v>
+        <v>1.001781605913245</v>
       </c>
       <c r="M25">
-        <v>0.8449070039175739</v>
+        <v>0.9646617328888611</v>
       </c>
       <c r="N25">
-        <v>0.8970672399055829</v>
+        <v>1.005592905341112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9855285699263766</v>
+        <v>1.017209748119836</v>
       </c>
       <c r="D2">
-        <v>0.9946690875972458</v>
+        <v>1.019271901313267</v>
       </c>
       <c r="E2">
-        <v>0.9940306870861558</v>
+        <v>1.01864176367692</v>
       </c>
       <c r="F2">
-        <v>0.9615984647659429</v>
+        <v>1.015567788015579</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041568608361252</v>
+        <v>1.027372539976271</v>
       </c>
       <c r="J2">
-        <v>1.008150905690618</v>
+        <v>1.022425163064438</v>
       </c>
       <c r="K2">
-        <v>1.006203193529006</v>
+        <v>1.022115641795462</v>
       </c>
       <c r="L2">
-        <v>1.005573815161567</v>
+        <v>1.021487374417678</v>
       </c>
       <c r="M2">
-        <v>0.9736200497256996</v>
+        <v>1.01842255860826</v>
       </c>
       <c r="N2">
-        <v>1.006829255867288</v>
+        <v>1.011588584536039</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9899940357473237</v>
+        <v>1.018117239705064</v>
       </c>
       <c r="D3">
-        <v>0.9982671224084109</v>
+        <v>1.020047674554548</v>
       </c>
       <c r="E3">
-        <v>0.9975662267302996</v>
+        <v>1.019409418406767</v>
       </c>
       <c r="F3">
-        <v>0.9688185792352291</v>
+        <v>1.017116733111366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042632324680204</v>
+        <v>1.027482867656249</v>
       </c>
       <c r="J3">
-        <v>1.010761240580824</v>
+        <v>1.022968662840647</v>
       </c>
       <c r="K3">
-        <v>1.008922223850136</v>
+        <v>1.022697487441704</v>
       </c>
       <c r="L3">
-        <v>1.008230343148904</v>
+        <v>1.022060988366195</v>
       </c>
       <c r="M3">
-        <v>0.9798666160256907</v>
+        <v>1.019774634373723</v>
       </c>
       <c r="N3">
-        <v>1.007692632419984</v>
+        <v>1.011767981732139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9928156800560426</v>
+        <v>1.018704030588423</v>
       </c>
       <c r="D4">
-        <v>1.000545460248115</v>
+        <v>1.02054958243443</v>
       </c>
       <c r="E4">
-        <v>0.9998062289465424</v>
+        <v>1.019906196766855</v>
       </c>
       <c r="F4">
-        <v>0.9733678346868829</v>
+        <v>1.018118504646188</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043285807014643</v>
+        <v>1.027551869223494</v>
       </c>
       <c r="J4">
-        <v>1.01240496413509</v>
+        <v>1.02331933446014</v>
       </c>
       <c r="K4">
-        <v>1.010637306500374</v>
+        <v>1.023073258013221</v>
       </c>
       <c r="L4">
-        <v>1.009906993176866</v>
+        <v>1.022431554153625</v>
       </c>
       <c r="M4">
-        <v>0.9837986813795988</v>
+        <v>1.020648547105376</v>
       </c>
       <c r="N4">
-        <v>1.008236291552965</v>
+        <v>1.011883714803986</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9939862849962107</v>
+        <v>1.018950617505497</v>
       </c>
       <c r="D5">
-        <v>1.001491782156142</v>
+        <v>1.02076056729115</v>
       </c>
       <c r="E5">
-        <v>1.000736919960841</v>
+        <v>1.020115054730839</v>
       </c>
       <c r="F5">
-        <v>0.9752524935579492</v>
+        <v>1.018539535039388</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043552372077167</v>
+        <v>1.027580305226257</v>
       </c>
       <c r="J5">
-        <v>1.013085502085057</v>
+        <v>1.023466514956072</v>
       </c>
       <c r="K5">
-        <v>1.011348086837684</v>
+        <v>1.023231058627128</v>
       </c>
       <c r="L5">
-        <v>1.010602081992974</v>
+        <v>1.022587195770308</v>
       </c>
       <c r="M5">
-        <v>0.985426706385059</v>
+        <v>1.021015712023315</v>
       </c>
       <c r="N5">
-        <v>1.008461374758327</v>
+        <v>1.011932285340558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9941819363958847</v>
+        <v>1.018992014666277</v>
       </c>
       <c r="D6">
-        <v>1.001650012158963</v>
+        <v>1.020795991548824</v>
       </c>
       <c r="E6">
-        <v>1.000892553431485</v>
+        <v>1.020150123605488</v>
       </c>
       <c r="F6">
-        <v>0.9755673449389662</v>
+        <v>1.018610221340328</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043596655959565</v>
+        <v>1.027585046180945</v>
       </c>
       <c r="J6">
-        <v>1.013199162976618</v>
+        <v>1.023491213018257</v>
       </c>
       <c r="K6">
-        <v>1.011466839744363</v>
+        <v>1.023257543869015</v>
       </c>
       <c r="L6">
-        <v>1.010718227086605</v>
+        <v>1.022613320212136</v>
       </c>
       <c r="M6">
-        <v>0.9856986277974036</v>
+        <v>1.021077347386189</v>
       </c>
       <c r="N6">
-        <v>1.008498967037181</v>
+        <v>1.011940435638784</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9928313822975326</v>
+        <v>1.018707325887942</v>
       </c>
       <c r="D7">
-        <v>1.000558149639761</v>
+        <v>1.020552401692883</v>
       </c>
       <c r="E7">
-        <v>0.9998187075930461</v>
+        <v>1.019908987489593</v>
       </c>
       <c r="F7">
-        <v>0.9733931250978859</v>
+        <v>1.018124130917802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043289400704804</v>
+        <v>1.027552251436122</v>
       </c>
       <c r="J7">
-        <v>1.012414098235908</v>
+        <v>1.023321302043829</v>
       </c>
       <c r="K7">
-        <v>1.010646843749578</v>
+        <v>1.023075367234335</v>
       </c>
       <c r="L7">
-        <v>1.009916318945952</v>
+        <v>1.022433634411835</v>
       </c>
       <c r="M7">
-        <v>0.983820531785684</v>
+        <v>1.020653454071421</v>
       </c>
       <c r="N7">
-        <v>1.008239312610589</v>
+        <v>1.011884364134706</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.987052121135896</v>
+        <v>1.017516525362105</v>
       </c>
       <c r="D8">
-        <v>0.9958956509017982</v>
+        <v>1.019534091483676</v>
       </c>
       <c r="E8">
-        <v>0.9952356831469052</v>
+        <v>1.018901184511215</v>
       </c>
       <c r="F8">
-        <v>0.9640648773128601</v>
+        <v>1.016091367842981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041935414122955</v>
+        <v>1.027410319785108</v>
       </c>
       <c r="J8">
-        <v>1.009042698895016</v>
+        <v>1.02260905013259</v>
       </c>
       <c r="K8">
-        <v>1.007131506737996</v>
+        <v>1.022312428627296</v>
       </c>
       <c r="L8">
-        <v>1.006480579244461</v>
+        <v>1.021681354093789</v>
       </c>
       <c r="M8">
-        <v>0.9757546655059154</v>
+        <v>1.018879702583796</v>
       </c>
       <c r="N8">
-        <v>1.007124219747189</v>
+        <v>1.011649284833646</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9763190114084885</v>
+        <v>1.015414996517432</v>
       </c>
       <c r="D9">
-        <v>0.9872768861426634</v>
+        <v>1.017739194894601</v>
       </c>
       <c r="E9">
-        <v>0.9867739523552346</v>
+        <v>1.017125752965868</v>
       </c>
       <c r="F9">
-        <v>0.94661357234682</v>
+        <v>1.0125053191128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039274333236074</v>
+        <v>1.027141956229966</v>
       </c>
       <c r="J9">
-        <v>1.002736642378905</v>
+        <v>1.021346254086508</v>
       </c>
       <c r="K9">
-        <v>1.000579815945904</v>
+        <v>1.020962515547299</v>
       </c>
       <c r="L9">
-        <v>1.000085320793858</v>
+        <v>1.020351155778459</v>
       </c>
       <c r="M9">
-        <v>0.9606365697115539</v>
+        <v>1.015746493867288</v>
       </c>
       <c r="N9">
-        <v>1.005038515543181</v>
+        <v>1.01123237764821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9687487573981483</v>
+        <v>1.014011839746396</v>
       </c>
       <c r="D10">
-        <v>0.9812279831726644</v>
+        <v>1.016542291425214</v>
       </c>
       <c r="E10">
-        <v>0.9808425255169726</v>
+        <v>1.015942468549628</v>
       </c>
       <c r="F10">
-        <v>0.934182151682149</v>
+        <v>1.010111559335011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037302158282281</v>
+        <v>1.026950802287338</v>
       </c>
       <c r="J10">
-        <v>0.9982595965481073</v>
+        <v>1.02049921352103</v>
       </c>
       <c r="K10">
-        <v>0.9959446506201159</v>
+        <v>1.020058881666227</v>
       </c>
       <c r="L10">
-        <v>0.9955665088143476</v>
+        <v>1.019461295054372</v>
       </c>
       <c r="M10">
-        <v>0.9498509473408505</v>
+        <v>1.013652277973579</v>
       </c>
       <c r="N10">
-        <v>1.003557901035629</v>
+        <v>1.010952651621902</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9653610027391067</v>
+        <v>1.013403750084476</v>
       </c>
       <c r="D11">
-        <v>0.9785288220982031</v>
+        <v>1.0160239525268</v>
       </c>
       <c r="E11">
-        <v>0.97819761271873</v>
+        <v>1.0154301800454</v>
       </c>
       <c r="F11">
-        <v>0.9285803616864436</v>
+        <v>1.009074234721516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036397895382715</v>
+        <v>1.026865132675841</v>
       </c>
       <c r="J11">
-        <v>0.9962493404800512</v>
+        <v>1.020131209395441</v>
       </c>
       <c r="K11">
-        <v>0.9938673397815755</v>
+        <v>1.019666725467469</v>
       </c>
       <c r="L11">
-        <v>0.993542745200992</v>
+        <v>1.019075252759025</v>
       </c>
       <c r="M11">
-        <v>0.9449877119549328</v>
+        <v>1.012744113373002</v>
       </c>
       <c r="N11">
-        <v>1.002893151022781</v>
+        <v>1.010831103955377</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9640850727374485</v>
+        <v>1.013177801192734</v>
       </c>
       <c r="D12">
-        <v>0.9775134623656392</v>
+        <v>1.015831407983697</v>
       </c>
       <c r="E12">
-        <v>0.9772029443905619</v>
+        <v>1.015239905988242</v>
       </c>
       <c r="F12">
-        <v>0.9264638304177277</v>
+        <v>1.00868879786645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036054141435319</v>
+        <v>1.026832876118061</v>
       </c>
       <c r="J12">
-        <v>0.9954912199819365</v>
+        <v>1.019994331508602</v>
       </c>
       <c r="K12">
-        <v>0.9930845323780113</v>
+        <v>1.019520929603845</v>
       </c>
       <c r="L12">
-        <v>0.9927803323201465</v>
+        <v>1.018931750464087</v>
       </c>
       <c r="M12">
-        <v>0.9431498452767545</v>
+        <v>1.012406571476346</v>
       </c>
       <c r="N12">
-        <v>1.002642469008714</v>
+        <v>1.010785892004997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9643595773393503</v>
+        <v>1.013226271498551</v>
       </c>
       <c r="D13">
-        <v>0.9777318513888419</v>
+        <v>1.015872709906215</v>
       </c>
       <c r="E13">
-        <v>0.9774168699735289</v>
+        <v>1.01528071983727</v>
       </c>
       <c r="F13">
-        <v>0.926919502672562</v>
+        <v>1.008771481291009</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036128239351044</v>
+        <v>1.026839814939094</v>
       </c>
       <c r="J13">
-        <v>0.9956543674899906</v>
+        <v>1.020023700641007</v>
       </c>
       <c r="K13">
-        <v>0.9932529651991858</v>
+        <v>1.019552209264279</v>
       </c>
       <c r="L13">
-        <v>0.9929443671063848</v>
+        <v>1.018962537123048</v>
       </c>
       <c r="M13">
-        <v>0.9435455393107417</v>
+        <v>1.012478984911316</v>
       </c>
       <c r="N13">
-        <v>1.002696415151136</v>
+        <v>1.010795593005488</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9652558988933774</v>
+        <v>1.013385074656836</v>
       </c>
       <c r="D14">
-        <v>0.9784451573232468</v>
+        <v>1.016008036944709</v>
       </c>
       <c r="E14">
-        <v>0.9781156470564275</v>
+        <v>1.015414451670711</v>
       </c>
       <c r="F14">
-        <v>0.9284061563120397</v>
+        <v>1.00904237704593</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03636964305143</v>
+        <v>1.026862475211061</v>
       </c>
       <c r="J14">
-        <v>0.9961869110220931</v>
+        <v>1.020119898795791</v>
       </c>
       <c r="K14">
-        <v>0.9938028651516788</v>
+        <v>1.019654676619593</v>
       </c>
       <c r="L14">
-        <v>0.9934799459134863</v>
+        <v>1.019063393037066</v>
       </c>
       <c r="M14">
-        <v>0.9448364499615145</v>
+        <v>1.012716216352673</v>
       </c>
       <c r="N14">
-        <v>1.002872507668225</v>
+        <v>1.010827368021455</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9658057905737161</v>
+        <v>1.013482908273474</v>
       </c>
       <c r="D15">
-        <v>0.978882932403619</v>
+        <v>1.016091415033118</v>
       </c>
       <c r="E15">
-        <v>0.9785445432005664</v>
+        <v>1.0154968499639</v>
       </c>
       <c r="F15">
-        <v>0.9293172996935286</v>
+        <v>1.009209267664557</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036517327027797</v>
+        <v>1.026876379317317</v>
       </c>
       <c r="J15">
-        <v>0.9965134944785394</v>
+        <v>1.020179145170512</v>
       </c>
       <c r="K15">
-        <v>0.994140171920659</v>
+        <v>1.019717792705742</v>
       </c>
       <c r="L15">
-        <v>0.9938084967536236</v>
+        <v>1.019125519256361</v>
       </c>
       <c r="M15">
-        <v>0.9456275778125065</v>
+        <v>1.012862354596397</v>
       </c>
       <c r="N15">
-        <v>1.002980498537513</v>
+        <v>1.010846937212902</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9689711891285768</v>
+        <v>1.014052185821504</v>
       </c>
       <c r="D16">
-        <v>0.9814053699514824</v>
+        <v>1.016576690391736</v>
       </c>
       <c r="E16">
-        <v>0.9810163860006308</v>
+        <v>1.01597646920673</v>
       </c>
       <c r="F16">
-        <v>0.9345490729529924</v>
+        <v>1.010180385517048</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037361085414409</v>
+        <v>1.026956426863581</v>
       </c>
       <c r="J16">
-        <v>0.9983914462448237</v>
+        <v>1.020523610830841</v>
       </c>
       <c r="K16">
-        <v>0.9960809809267656</v>
+        <v>1.020084889320903</v>
       </c>
       <c r="L16">
-        <v>0.9956993544769471</v>
+        <v>1.019486900114879</v>
       </c>
       <c r="M16">
-        <v>0.9501694354014394</v>
+        <v>1.013712520843103</v>
       </c>
       <c r="N16">
-        <v>1.003601502605849</v>
+        <v>1.010960709400533</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.970926640561628</v>
+        <v>1.014409140991636</v>
       </c>
       <c r="D17">
-        <v>0.9829657097301616</v>
+        <v>1.016881071861645</v>
       </c>
       <c r="E17">
-        <v>0.9825459164816405</v>
+        <v>1.016277343828188</v>
       </c>
       <c r="F17">
-        <v>0.9377702826632069</v>
+        <v>1.010789320440194</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037876674354914</v>
+        <v>1.027005862831586</v>
       </c>
       <c r="J17">
-        <v>0.9995498060524871</v>
+        <v>1.020739355760002</v>
       </c>
       <c r="K17">
-        <v>0.997279152704827</v>
+        <v>1.020314924693301</v>
       </c>
       <c r="L17">
-        <v>0.9968670602321006</v>
+        <v>1.019713390349109</v>
       </c>
       <c r="M17">
-        <v>0.9529651103289564</v>
+        <v>1.014245440939837</v>
       </c>
       <c r="N17">
-        <v>1.003984570178793</v>
+        <v>1.011031962076</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9720567072220473</v>
+        <v>1.014617297367873</v>
       </c>
       <c r="D18">
-        <v>0.9838681708268376</v>
+        <v>1.017058605470697</v>
       </c>
       <c r="E18">
-        <v>0.9834307307593798</v>
+        <v>1.016452846733592</v>
       </c>
       <c r="F18">
-        <v>0.9396282509285141</v>
+        <v>1.011144424082196</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038172578358029</v>
+        <v>1.027034418284356</v>
       </c>
       <c r="J18">
-        <v>1.000218590504856</v>
+        <v>1.020865077452226</v>
       </c>
       <c r="K18">
-        <v>0.9979712944228974</v>
+        <v>1.020449015830921</v>
       </c>
       <c r="L18">
-        <v>0.9975417349313959</v>
+        <v>1.019845428140372</v>
       </c>
       <c r="M18">
-        <v>0.9545773391625288</v>
+        <v>1.014556153820756</v>
       </c>
       <c r="N18">
-        <v>1.004205742135476</v>
+        <v>1.011073481600736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9724402781956969</v>
+        <v>1.01468826491567</v>
       </c>
       <c r="D19">
-        <v>0.9841746096317716</v>
+        <v>1.017119138652106</v>
       </c>
       <c r="E19">
-        <v>0.9837312064089767</v>
+        <v>1.016512690002487</v>
       </c>
       <c r="F19">
-        <v>0.9402583059538616</v>
+        <v>1.011265492248592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038272663712449</v>
+        <v>1.027044107498193</v>
       </c>
       <c r="J19">
-        <v>1.000445482783868</v>
+        <v>1.020907925170174</v>
       </c>
       <c r="K19">
-        <v>0.9982061737073309</v>
+        <v>1.020494723089159</v>
       </c>
       <c r="L19">
-        <v>0.9977707090233164</v>
+        <v>1.019890437713837</v>
       </c>
       <c r="M19">
-        <v>0.9551240095083103</v>
+        <v>1.014662076933394</v>
       </c>
       <c r="N19">
-        <v>1.004280778043825</v>
+        <v>1.011087631737859</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9707179341916594</v>
+        <v>1.014370848204738</v>
       </c>
       <c r="D20">
-        <v>0.9827990974816438</v>
+        <v>1.016848415326738</v>
       </c>
       <c r="E20">
-        <v>0.9823825760654111</v>
+        <v>1.016245062015454</v>
       </c>
       <c r="F20">
-        <v>0.9374268598608336</v>
+        <v>1.010723995578775</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037821858333317</v>
+        <v>1.027000587748582</v>
       </c>
       <c r="J20">
-        <v>0.9994262398478637</v>
+        <v>1.020716220645689</v>
       </c>
       <c r="K20">
-        <v>0.9971513009714169</v>
+        <v>1.020290252824672</v>
       </c>
       <c r="L20">
-        <v>0.9967424456425208</v>
+        <v>1.019689097342906</v>
       </c>
       <c r="M20">
-        <v>0.9526670851237162</v>
+        <v>1.014188277183467</v>
       </c>
       <c r="N20">
-        <v>1.003943706397381</v>
+        <v>1.011024321574162</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9649924485982188</v>
+        <v>1.013338313220494</v>
       </c>
       <c r="D21">
-        <v>0.9782354655151371</v>
+        <v>1.015968186788777</v>
       </c>
       <c r="E21">
-        <v>0.9779102184082018</v>
+        <v>1.015375070624621</v>
       </c>
       <c r="F21">
-        <v>0.927969386404737</v>
+        <v>1.008962608592205</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036298775614364</v>
+        <v>1.026855814331743</v>
       </c>
       <c r="J21">
-        <v>0.9960304111085985</v>
+        <v>1.020091575937333</v>
       </c>
       <c r="K21">
-        <v>0.9936412480532346</v>
+        <v>1.019624506168934</v>
       </c>
       <c r="L21">
-        <v>0.9933225318536706</v>
+        <v>1.019033696491616</v>
       </c>
       <c r="M21">
-        <v>0.9444571980789151</v>
+        <v>1.012646363423413</v>
       </c>
       <c r="N21">
-        <v>1.002820758543114</v>
+        <v>1.01081801283038</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9612903632531148</v>
+        <v>1.012688670074491</v>
       </c>
       <c r="D22">
-        <v>0.975291808436242</v>
+        <v>1.015414692196611</v>
       </c>
       <c r="E22">
-        <v>0.9750270994213178</v>
+        <v>1.014828146221327</v>
       </c>
       <c r="F22">
-        <v>0.9218144118574479</v>
+        <v>1.007854409099411</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035295438644281</v>
+        <v>1.026762272686558</v>
       </c>
       <c r="J22">
-        <v>0.993828862164845</v>
+        <v>1.019697767998165</v>
       </c>
       <c r="K22">
-        <v>0.9913691611408174</v>
+        <v>1.019205163535211</v>
       </c>
       <c r="L22">
-        <v>0.9911100558151539</v>
+        <v>1.018620989416421</v>
       </c>
       <c r="M22">
-        <v>0.9391119574267176</v>
+        <v>1.011675688339882</v>
       </c>
       <c r="N22">
-        <v>1.002092816166134</v>
+        <v>1.010687929596036</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.963262985844845</v>
+        <v>1.013033100667504</v>
       </c>
       <c r="D23">
-        <v>0.9768596145991995</v>
+        <v>1.015708115711611</v>
       </c>
       <c r="E23">
-        <v>0.9765625024923306</v>
+        <v>1.015118074057439</v>
       </c>
       <c r="F23">
-        <v>0.9250981182699071</v>
+        <v>1.008441959469109</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035831772724747</v>
+        <v>1.026812099305657</v>
       </c>
       <c r="J23">
-        <v>0.9950024802688069</v>
+        <v>1.019906634365911</v>
       </c>
       <c r="K23">
-        <v>0.9925800483806941</v>
+        <v>1.01942753712038</v>
       </c>
       <c r="L23">
-        <v>0.9922890532587882</v>
+        <v>1.01883983295635</v>
       </c>
       <c r="M23">
-        <v>0.9419638460924754</v>
+        <v>1.012190378367706</v>
       </c>
       <c r="N23">
-        <v>1.002480865052152</v>
+        <v>1.01075692412207</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9708122720324306</v>
+        <v>1.014388151219696</v>
       </c>
       <c r="D24">
-        <v>0.9828744059970601</v>
+        <v>1.016863171430577</v>
       </c>
       <c r="E24">
-        <v>0.982456405182735</v>
+        <v>1.016259648752819</v>
       </c>
       <c r="F24">
-        <v>0.9375821022434461</v>
+        <v>1.010753513310596</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037846642237865</v>
+        <v>1.027002972195768</v>
       </c>
       <c r="J24">
-        <v>0.9994820952705177</v>
+        <v>1.020726674774555</v>
       </c>
       <c r="K24">
-        <v>0.997209092421626</v>
+        <v>1.020301401241412</v>
       </c>
       <c r="L24">
-        <v>0.9967987734316637</v>
+        <v>1.019700074523321</v>
       </c>
       <c r="M24">
-        <v>0.9528018066925784</v>
+        <v>1.014214107425931</v>
       </c>
       <c r="N24">
-        <v>1.003962177964701</v>
+        <v>1.011027774114565</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.979163329687836</v>
+        <v>1.015958669134282</v>
       </c>
       <c r="D25">
-        <v>0.9895559352450406</v>
+        <v>1.018203274931771</v>
       </c>
       <c r="E25">
-        <v>0.9890102585756863</v>
+        <v>1.017584687873256</v>
       </c>
       <c r="F25">
-        <v>0.9512564693005047</v>
+        <v>1.013432913770783</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039996174999644</v>
+        <v>1.027213495276575</v>
       </c>
       <c r="J25">
-        <v>1.004412870458787</v>
+        <v>1.021673630356283</v>
       </c>
       <c r="K25">
-        <v>1.002318574795034</v>
+        <v>1.021312152406244</v>
       </c>
       <c r="L25">
-        <v>1.001781605913245</v>
+        <v>1.020695585034569</v>
       </c>
       <c r="M25">
-        <v>0.9646617328888611</v>
+        <v>1.016557436442932</v>
       </c>
       <c r="N25">
-        <v>1.005592905341112</v>
+        <v>1.01134047366322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017209748119836</v>
+        <v>0.9855285699263765</v>
       </c>
       <c r="D2">
-        <v>1.019271901313267</v>
+        <v>0.9946690875972457</v>
       </c>
       <c r="E2">
-        <v>1.01864176367692</v>
+        <v>0.9940306870861553</v>
       </c>
       <c r="F2">
-        <v>1.015567788015579</v>
+        <v>0.9615984647659427</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027372539976271</v>
+        <v>1.041568608361252</v>
       </c>
       <c r="J2">
-        <v>1.022425163064438</v>
+        <v>1.008150905690618</v>
       </c>
       <c r="K2">
-        <v>1.022115641795462</v>
+        <v>1.006203193529006</v>
       </c>
       <c r="L2">
-        <v>1.021487374417678</v>
+        <v>1.005573815161566</v>
       </c>
       <c r="M2">
-        <v>1.01842255860826</v>
+        <v>0.9736200497256995</v>
       </c>
       <c r="N2">
-        <v>1.011588584536039</v>
+        <v>1.006829255867288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018117239705064</v>
+        <v>0.9899940357473234</v>
       </c>
       <c r="D3">
-        <v>1.020047674554548</v>
+        <v>0.9982671224084104</v>
       </c>
       <c r="E3">
-        <v>1.019409418406767</v>
+        <v>0.997566226730299</v>
       </c>
       <c r="F3">
-        <v>1.017116733111366</v>
+        <v>0.9688185792352282</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027482867656249</v>
+        <v>1.042632324680204</v>
       </c>
       <c r="J3">
-        <v>1.022968662840647</v>
+        <v>1.010761240580824</v>
       </c>
       <c r="K3">
-        <v>1.022697487441704</v>
+        <v>1.008922223850136</v>
       </c>
       <c r="L3">
-        <v>1.022060988366195</v>
+        <v>1.008230343148903</v>
       </c>
       <c r="M3">
-        <v>1.019774634373723</v>
+        <v>0.9798666160256898</v>
       </c>
       <c r="N3">
-        <v>1.011767981732139</v>
+        <v>1.007692632419984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018704030588423</v>
+        <v>0.9928156800560419</v>
       </c>
       <c r="D4">
-        <v>1.02054958243443</v>
+        <v>1.000545460248114</v>
       </c>
       <c r="E4">
-        <v>1.019906196766855</v>
+        <v>0.9998062289465415</v>
       </c>
       <c r="F4">
-        <v>1.018118504646188</v>
+        <v>0.9733678346868818</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027551869223494</v>
+        <v>1.043285807014643</v>
       </c>
       <c r="J4">
-        <v>1.02331933446014</v>
+        <v>1.012404964135089</v>
       </c>
       <c r="K4">
-        <v>1.023073258013221</v>
+        <v>1.010637306500374</v>
       </c>
       <c r="L4">
-        <v>1.022431554153625</v>
+        <v>1.009906993176865</v>
       </c>
       <c r="M4">
-        <v>1.020648547105376</v>
+        <v>0.9837986813795978</v>
       </c>
       <c r="N4">
-        <v>1.011883714803986</v>
+        <v>1.008236291552964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018950617505497</v>
+        <v>0.9939862849962108</v>
       </c>
       <c r="D5">
-        <v>1.02076056729115</v>
+        <v>1.001491782156142</v>
       </c>
       <c r="E5">
-        <v>1.020115054730839</v>
+        <v>1.00073691996084</v>
       </c>
       <c r="F5">
-        <v>1.018539535039388</v>
+        <v>0.9752524935579489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027580305226257</v>
+        <v>1.043552372077166</v>
       </c>
       <c r="J5">
-        <v>1.023466514956072</v>
+        <v>1.013085502085057</v>
       </c>
       <c r="K5">
-        <v>1.023231058627128</v>
+        <v>1.011348086837684</v>
       </c>
       <c r="L5">
-        <v>1.022587195770308</v>
+        <v>1.010602081992974</v>
       </c>
       <c r="M5">
-        <v>1.021015712023315</v>
+        <v>0.9854267063850589</v>
       </c>
       <c r="N5">
-        <v>1.011932285340558</v>
+        <v>1.008461374758327</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018992014666277</v>
+        <v>0.9941819363958847</v>
       </c>
       <c r="D6">
-        <v>1.020795991548824</v>
+        <v>1.001650012158963</v>
       </c>
       <c r="E6">
-        <v>1.020150123605488</v>
+        <v>1.000892553431485</v>
       </c>
       <c r="F6">
-        <v>1.018610221340328</v>
+        <v>0.9755673449389657</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027585046180945</v>
+        <v>1.043596655959565</v>
       </c>
       <c r="J6">
-        <v>1.023491213018257</v>
+        <v>1.013199162976618</v>
       </c>
       <c r="K6">
-        <v>1.023257543869015</v>
+        <v>1.011466839744363</v>
       </c>
       <c r="L6">
-        <v>1.022613320212136</v>
+        <v>1.010718227086605</v>
       </c>
       <c r="M6">
-        <v>1.021077347386189</v>
+        <v>0.9856986277974031</v>
       </c>
       <c r="N6">
-        <v>1.011940435638784</v>
+        <v>1.008498967037181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018707325887942</v>
+        <v>0.9928313822975328</v>
       </c>
       <c r="D7">
-        <v>1.020552401692883</v>
+        <v>1.000558149639761</v>
       </c>
       <c r="E7">
-        <v>1.019908987489593</v>
+        <v>0.9998187075930464</v>
       </c>
       <c r="F7">
-        <v>1.018124130917802</v>
+        <v>0.9733931250978863</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027552251436122</v>
+        <v>1.043289400704804</v>
       </c>
       <c r="J7">
-        <v>1.023321302043829</v>
+        <v>1.012414098235908</v>
       </c>
       <c r="K7">
-        <v>1.023075367234335</v>
+        <v>1.010646843749578</v>
       </c>
       <c r="L7">
-        <v>1.022433634411835</v>
+        <v>1.009916318945952</v>
       </c>
       <c r="M7">
-        <v>1.020653454071421</v>
+        <v>0.9838205317856844</v>
       </c>
       <c r="N7">
-        <v>1.011884364134706</v>
+        <v>1.008239312610589</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017516525362105</v>
+        <v>0.9870521211358955</v>
       </c>
       <c r="D8">
-        <v>1.019534091483676</v>
+        <v>0.9958956509017975</v>
       </c>
       <c r="E8">
-        <v>1.018901184511215</v>
+        <v>0.9952356831469045</v>
       </c>
       <c r="F8">
-        <v>1.016091367842981</v>
+        <v>0.9640648773128594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027410319785108</v>
+        <v>1.041935414122954</v>
       </c>
       <c r="J8">
-        <v>1.02260905013259</v>
+        <v>1.009042698895015</v>
       </c>
       <c r="K8">
-        <v>1.022312428627296</v>
+        <v>1.007131506737996</v>
       </c>
       <c r="L8">
-        <v>1.021681354093789</v>
+        <v>1.00648057924446</v>
       </c>
       <c r="M8">
-        <v>1.018879702583796</v>
+        <v>0.9757546655059148</v>
       </c>
       <c r="N8">
-        <v>1.011649284833646</v>
+        <v>1.007124219747189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015414996517432</v>
+        <v>0.9763190114084889</v>
       </c>
       <c r="D9">
-        <v>1.017739194894601</v>
+        <v>0.9872768861426636</v>
       </c>
       <c r="E9">
-        <v>1.017125752965868</v>
+        <v>0.9867739523552348</v>
       </c>
       <c r="F9">
-        <v>1.0125053191128</v>
+        <v>0.9466135723468202</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027141956229966</v>
+        <v>1.039274333236074</v>
       </c>
       <c r="J9">
-        <v>1.021346254086508</v>
+        <v>1.002736642378905</v>
       </c>
       <c r="K9">
-        <v>1.020962515547299</v>
+        <v>1.000579815945904</v>
       </c>
       <c r="L9">
-        <v>1.020351155778459</v>
+        <v>1.000085320793858</v>
       </c>
       <c r="M9">
-        <v>1.015746493867288</v>
+        <v>0.9606365697115542</v>
       </c>
       <c r="N9">
-        <v>1.01123237764821</v>
+        <v>1.005038515543181</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014011839746396</v>
+        <v>0.9687487573981481</v>
       </c>
       <c r="D10">
-        <v>1.016542291425214</v>
+        <v>0.9812279831726644</v>
       </c>
       <c r="E10">
-        <v>1.015942468549628</v>
+        <v>0.9808425255169725</v>
       </c>
       <c r="F10">
-        <v>1.010111559335011</v>
+        <v>0.9341821516821488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026950802287338</v>
+        <v>1.037302158282281</v>
       </c>
       <c r="J10">
-        <v>1.02049921352103</v>
+        <v>0.9982595965481073</v>
       </c>
       <c r="K10">
-        <v>1.020058881666227</v>
+        <v>0.9959446506201159</v>
       </c>
       <c r="L10">
-        <v>1.019461295054372</v>
+        <v>0.9955665088143475</v>
       </c>
       <c r="M10">
-        <v>1.013652277973579</v>
+        <v>0.94985094734085</v>
       </c>
       <c r="N10">
-        <v>1.010952651621902</v>
+        <v>1.003557901035629</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013403750084476</v>
+        <v>0.9653610027391073</v>
       </c>
       <c r="D11">
-        <v>1.0160239525268</v>
+        <v>0.9785288220982039</v>
       </c>
       <c r="E11">
-        <v>1.0154301800454</v>
+        <v>0.9781976127187304</v>
       </c>
       <c r="F11">
-        <v>1.009074234721516</v>
+        <v>0.9285803616864443</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026865132675841</v>
+        <v>1.036397895382715</v>
       </c>
       <c r="J11">
-        <v>1.020131209395441</v>
+        <v>0.9962493404800516</v>
       </c>
       <c r="K11">
-        <v>1.019666725467469</v>
+        <v>0.9938673397815762</v>
       </c>
       <c r="L11">
-        <v>1.019075252759025</v>
+        <v>0.9935427452009924</v>
       </c>
       <c r="M11">
-        <v>1.012744113373002</v>
+        <v>0.9449877119549334</v>
       </c>
       <c r="N11">
-        <v>1.010831103955377</v>
+        <v>1.002893151022781</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013177801192734</v>
+        <v>0.9640850727374479</v>
       </c>
       <c r="D12">
-        <v>1.015831407983697</v>
+        <v>0.9775134623656386</v>
       </c>
       <c r="E12">
-        <v>1.015239905988242</v>
+        <v>0.9772029443905611</v>
       </c>
       <c r="F12">
-        <v>1.00868879786645</v>
+        <v>0.9264638304177273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026832876118061</v>
+        <v>1.036054141435319</v>
       </c>
       <c r="J12">
-        <v>1.019994331508602</v>
+        <v>0.9954912199819357</v>
       </c>
       <c r="K12">
-        <v>1.019520929603845</v>
+        <v>0.9930845323780106</v>
       </c>
       <c r="L12">
-        <v>1.018931750464087</v>
+        <v>0.9927803323201456</v>
       </c>
       <c r="M12">
-        <v>1.012406571476346</v>
+        <v>0.9431498452767541</v>
       </c>
       <c r="N12">
-        <v>1.010785892004997</v>
+        <v>1.002642469008714</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013226271498551</v>
+        <v>0.9643595773393501</v>
       </c>
       <c r="D13">
-        <v>1.015872709906215</v>
+        <v>0.9777318513888417</v>
       </c>
       <c r="E13">
-        <v>1.01528071983727</v>
+        <v>0.9774168699735291</v>
       </c>
       <c r="F13">
-        <v>1.008771481291009</v>
+        <v>0.9269195026725617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026839814939094</v>
+        <v>1.036128239351044</v>
       </c>
       <c r="J13">
-        <v>1.020023700641007</v>
+        <v>0.9956543674899905</v>
       </c>
       <c r="K13">
-        <v>1.019552209264279</v>
+        <v>0.9932529651991855</v>
       </c>
       <c r="L13">
-        <v>1.018962537123048</v>
+        <v>0.9929443671063849</v>
       </c>
       <c r="M13">
-        <v>1.012478984911316</v>
+        <v>0.9435455393107413</v>
       </c>
       <c r="N13">
-        <v>1.010795593005488</v>
+        <v>1.002696415151136</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013385074656836</v>
+        <v>0.965255898893377</v>
       </c>
       <c r="D14">
-        <v>1.016008036944709</v>
+        <v>0.9784451573232467</v>
       </c>
       <c r="E14">
-        <v>1.015414451670711</v>
+        <v>0.9781156470564271</v>
       </c>
       <c r="F14">
-        <v>1.00904237704593</v>
+        <v>0.9284061563120389</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026862475211061</v>
+        <v>1.03636964305143</v>
       </c>
       <c r="J14">
-        <v>1.020119898795791</v>
+        <v>0.9961869110220927</v>
       </c>
       <c r="K14">
-        <v>1.019654676619593</v>
+        <v>0.9938028651516787</v>
       </c>
       <c r="L14">
-        <v>1.019063393037066</v>
+        <v>0.9934799459134858</v>
       </c>
       <c r="M14">
-        <v>1.012716216352673</v>
+        <v>0.9448364499615136</v>
       </c>
       <c r="N14">
-        <v>1.010827368021455</v>
+        <v>1.002872507668225</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013482908273474</v>
+        <v>0.9658057905737164</v>
       </c>
       <c r="D15">
-        <v>1.016091415033118</v>
+        <v>0.9788829324036196</v>
       </c>
       <c r="E15">
-        <v>1.0154968499639</v>
+        <v>0.9785445432005669</v>
       </c>
       <c r="F15">
-        <v>1.009209267664557</v>
+        <v>0.9293172996935289</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026876379317317</v>
+        <v>1.036517327027797</v>
       </c>
       <c r="J15">
-        <v>1.020179145170512</v>
+        <v>0.9965134944785399</v>
       </c>
       <c r="K15">
-        <v>1.019717792705742</v>
+        <v>0.9941401719206594</v>
       </c>
       <c r="L15">
-        <v>1.019125519256361</v>
+        <v>0.993808496753624</v>
       </c>
       <c r="M15">
-        <v>1.012862354596397</v>
+        <v>0.9456275778125067</v>
       </c>
       <c r="N15">
-        <v>1.010846937212902</v>
+        <v>1.002980498537513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014052185821504</v>
+        <v>0.9689711891285767</v>
       </c>
       <c r="D16">
-        <v>1.016576690391736</v>
+        <v>0.9814053699514822</v>
       </c>
       <c r="E16">
-        <v>1.01597646920673</v>
+        <v>0.9810163860006302</v>
       </c>
       <c r="F16">
-        <v>1.010180385517048</v>
+        <v>0.9345490729529923</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026956426863581</v>
+        <v>1.037361085414409</v>
       </c>
       <c r="J16">
-        <v>1.020523610830841</v>
+        <v>0.9983914462448235</v>
       </c>
       <c r="K16">
-        <v>1.020084889320903</v>
+        <v>0.9960809809267654</v>
       </c>
       <c r="L16">
-        <v>1.019486900114879</v>
+        <v>0.9956993544769467</v>
       </c>
       <c r="M16">
-        <v>1.013712520843103</v>
+        <v>0.9501694354014392</v>
       </c>
       <c r="N16">
-        <v>1.010960709400533</v>
+        <v>1.003601502605849</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014409140991636</v>
+        <v>0.9709266405616269</v>
       </c>
       <c r="D17">
-        <v>1.016881071861645</v>
+        <v>0.9829657097301604</v>
       </c>
       <c r="E17">
-        <v>1.016277343828188</v>
+        <v>0.9825459164816394</v>
       </c>
       <c r="F17">
-        <v>1.010789320440194</v>
+        <v>0.9377702826632059</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027005862831586</v>
+        <v>1.037876674354914</v>
       </c>
       <c r="J17">
-        <v>1.020739355760002</v>
+        <v>0.999549806052486</v>
       </c>
       <c r="K17">
-        <v>1.020314924693301</v>
+        <v>0.9972791527048259</v>
       </c>
       <c r="L17">
-        <v>1.019713390349109</v>
+        <v>0.9968670602320996</v>
       </c>
       <c r="M17">
-        <v>1.014245440939837</v>
+        <v>0.9529651103289554</v>
       </c>
       <c r="N17">
-        <v>1.011031962076</v>
+        <v>1.003984570178792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014617297367873</v>
+        <v>0.9720567072220471</v>
       </c>
       <c r="D18">
-        <v>1.017058605470697</v>
+        <v>0.9838681708268375</v>
       </c>
       <c r="E18">
-        <v>1.016452846733592</v>
+        <v>0.9834307307593795</v>
       </c>
       <c r="F18">
-        <v>1.011144424082196</v>
+        <v>0.939628250928514</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027034418284356</v>
+        <v>1.038172578358029</v>
       </c>
       <c r="J18">
-        <v>1.020865077452226</v>
+        <v>1.000218590504856</v>
       </c>
       <c r="K18">
-        <v>1.020449015830921</v>
+        <v>0.9979712944228973</v>
       </c>
       <c r="L18">
-        <v>1.019845428140372</v>
+        <v>0.9975417349313954</v>
       </c>
       <c r="M18">
-        <v>1.014556153820756</v>
+        <v>0.9545773391625286</v>
       </c>
       <c r="N18">
-        <v>1.011073481600736</v>
+        <v>1.004205742135476</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01468826491567</v>
+        <v>0.972440278195697</v>
       </c>
       <c r="D19">
-        <v>1.017119138652106</v>
+        <v>0.9841746096317717</v>
       </c>
       <c r="E19">
-        <v>1.016512690002487</v>
+        <v>0.9837312064089768</v>
       </c>
       <c r="F19">
-        <v>1.011265492248592</v>
+        <v>0.9402583059538616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027044107498193</v>
+        <v>1.038272663712449</v>
       </c>
       <c r="J19">
-        <v>1.020907925170174</v>
+        <v>1.000445482783868</v>
       </c>
       <c r="K19">
-        <v>1.020494723089159</v>
+        <v>0.998206173707331</v>
       </c>
       <c r="L19">
-        <v>1.019890437713837</v>
+        <v>0.9977707090233167</v>
       </c>
       <c r="M19">
-        <v>1.014662076933394</v>
+        <v>0.9551240095083103</v>
       </c>
       <c r="N19">
-        <v>1.011087631737859</v>
+        <v>1.004280778043825</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014370848204738</v>
+        <v>0.9707179341916589</v>
       </c>
       <c r="D20">
-        <v>1.016848415326738</v>
+        <v>0.9827990974816431</v>
       </c>
       <c r="E20">
-        <v>1.016245062015454</v>
+        <v>0.9823825760654105</v>
       </c>
       <c r="F20">
-        <v>1.010723995578775</v>
+        <v>0.9374268598608327</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027000587748582</v>
+        <v>1.037821858333317</v>
       </c>
       <c r="J20">
-        <v>1.020716220645689</v>
+        <v>0.9994262398478632</v>
       </c>
       <c r="K20">
-        <v>1.020290252824672</v>
+        <v>0.9971513009714161</v>
       </c>
       <c r="L20">
-        <v>1.019689097342906</v>
+        <v>0.9967424456425199</v>
       </c>
       <c r="M20">
-        <v>1.014188277183467</v>
+        <v>0.9526670851237155</v>
       </c>
       <c r="N20">
-        <v>1.011024321574162</v>
+        <v>1.003943706397381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013338313220494</v>
+        <v>0.9649924485982186</v>
       </c>
       <c r="D21">
-        <v>1.015968186788777</v>
+        <v>0.9782354655151367</v>
       </c>
       <c r="E21">
-        <v>1.015375070624621</v>
+        <v>0.9779102184082019</v>
       </c>
       <c r="F21">
-        <v>1.008962608592205</v>
+        <v>0.9279693864047378</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026855814331743</v>
+        <v>1.036298775614364</v>
       </c>
       <c r="J21">
-        <v>1.020091575937333</v>
+        <v>0.9960304111085985</v>
       </c>
       <c r="K21">
-        <v>1.019624506168934</v>
+        <v>0.9936412480532344</v>
       </c>
       <c r="L21">
-        <v>1.019033696491616</v>
+        <v>0.9933225318536705</v>
       </c>
       <c r="M21">
-        <v>1.012646363423413</v>
+        <v>0.9444571980789159</v>
       </c>
       <c r="N21">
-        <v>1.01081801283038</v>
+        <v>1.002820758543114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012688670074491</v>
+        <v>0.9612903632531148</v>
       </c>
       <c r="D22">
-        <v>1.015414692196611</v>
+        <v>0.9752918084362419</v>
       </c>
       <c r="E22">
-        <v>1.014828146221327</v>
+        <v>0.9750270994213175</v>
       </c>
       <c r="F22">
-        <v>1.007854409099411</v>
+        <v>0.9218144118574478</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026762272686558</v>
+        <v>1.035295438644281</v>
       </c>
       <c r="J22">
-        <v>1.019697767998165</v>
+        <v>0.993828862164845</v>
       </c>
       <c r="K22">
-        <v>1.019205163535211</v>
+        <v>0.9913691611408172</v>
       </c>
       <c r="L22">
-        <v>1.018620989416421</v>
+        <v>0.9911100558151538</v>
       </c>
       <c r="M22">
-        <v>1.011675688339882</v>
+        <v>0.9391119574267176</v>
       </c>
       <c r="N22">
-        <v>1.010687929596036</v>
+        <v>1.002092816166133</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013033100667504</v>
+        <v>0.963262985844845</v>
       </c>
       <c r="D23">
-        <v>1.015708115711611</v>
+        <v>0.9768596145991996</v>
       </c>
       <c r="E23">
-        <v>1.015118074057439</v>
+        <v>0.9765625024923306</v>
       </c>
       <c r="F23">
-        <v>1.008441959469109</v>
+        <v>0.9250981182699074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026812099305657</v>
+        <v>1.035831772724747</v>
       </c>
       <c r="J23">
-        <v>1.019906634365911</v>
+        <v>0.9950024802688068</v>
       </c>
       <c r="K23">
-        <v>1.01942753712038</v>
+        <v>0.9925800483806941</v>
       </c>
       <c r="L23">
-        <v>1.01883983295635</v>
+        <v>0.9922890532587881</v>
       </c>
       <c r="M23">
-        <v>1.012190378367706</v>
+        <v>0.9419638460924757</v>
       </c>
       <c r="N23">
-        <v>1.01075692412207</v>
+        <v>1.002480865052152</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014388151219696</v>
+        <v>0.9708122720324305</v>
       </c>
       <c r="D24">
-        <v>1.016863171430577</v>
+        <v>0.9828744059970602</v>
       </c>
       <c r="E24">
-        <v>1.016259648752819</v>
+        <v>0.9824564051827346</v>
       </c>
       <c r="F24">
-        <v>1.010753513310596</v>
+        <v>0.9375821022434461</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027002972195768</v>
+        <v>1.037846642237865</v>
       </c>
       <c r="J24">
-        <v>1.020726674774555</v>
+        <v>0.9994820952705176</v>
       </c>
       <c r="K24">
-        <v>1.020301401241412</v>
+        <v>0.9972090924216261</v>
       </c>
       <c r="L24">
-        <v>1.019700074523321</v>
+        <v>0.9967987734316632</v>
       </c>
       <c r="M24">
-        <v>1.014214107425931</v>
+        <v>0.9528018066925786</v>
       </c>
       <c r="N24">
-        <v>1.011027774114565</v>
+        <v>1.003962177964701</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015958669134282</v>
+        <v>0.979163329687836</v>
       </c>
       <c r="D25">
-        <v>1.018203274931771</v>
+        <v>0.9895559352450406</v>
       </c>
       <c r="E25">
-        <v>1.017584687873256</v>
+        <v>0.989010258575686</v>
       </c>
       <c r="F25">
-        <v>1.013432913770783</v>
+        <v>0.9512564693005048</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027213495276575</v>
+        <v>1.039996174999644</v>
       </c>
       <c r="J25">
-        <v>1.021673630356283</v>
+        <v>1.004412870458787</v>
       </c>
       <c r="K25">
-        <v>1.021312152406244</v>
+        <v>1.002318574795034</v>
       </c>
       <c r="L25">
-        <v>1.020695585034569</v>
+        <v>1.001781605913245</v>
       </c>
       <c r="M25">
-        <v>1.016557436442932</v>
+        <v>0.9646617328888613</v>
       </c>
       <c r="N25">
-        <v>1.01134047366322</v>
+        <v>1.005592905341112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9855285699263765</v>
+        <v>0.9964986781090116</v>
       </c>
       <c r="D2">
-        <v>0.9946690875972457</v>
+        <v>1.009869499708814</v>
       </c>
       <c r="E2">
-        <v>0.9940306870861553</v>
+        <v>1.003434718016199</v>
       </c>
       <c r="F2">
-        <v>0.9615984647659427</v>
+        <v>1.01510548863992</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041568608361252</v>
+        <v>1.042104145037932</v>
       </c>
       <c r="J2">
-        <v>1.008150905690618</v>
+        <v>1.01878461983501</v>
       </c>
       <c r="K2">
-        <v>1.006203193529006</v>
+        <v>1.021193028016155</v>
       </c>
       <c r="L2">
-        <v>1.005573815161566</v>
+        <v>1.01484640826785</v>
       </c>
       <c r="M2">
-        <v>0.9736200497256995</v>
+        <v>1.026358315984767</v>
       </c>
       <c r="N2">
-        <v>1.006829255867288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010168833717902</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029433143034914</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.026055277307686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9899940357473234</v>
+        <v>1.000032406073376</v>
       </c>
       <c r="D3">
-        <v>0.9982671224084104</v>
+        <v>1.012412856449187</v>
       </c>
       <c r="E3">
-        <v>0.997566226730299</v>
+        <v>1.006184879229682</v>
       </c>
       <c r="F3">
-        <v>0.9688185792352282</v>
+        <v>1.018044237185122</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042632324680204</v>
+        <v>1.04258214395446</v>
       </c>
       <c r="J3">
-        <v>1.010761240580824</v>
+        <v>1.02052218770556</v>
       </c>
       <c r="K3">
-        <v>1.008922223850136</v>
+        <v>1.022889338329509</v>
       </c>
       <c r="L3">
-        <v>1.008230343148903</v>
+        <v>1.016739230329986</v>
       </c>
       <c r="M3">
-        <v>0.9798666160256898</v>
+        <v>1.028451329283953</v>
       </c>
       <c r="N3">
-        <v>1.007692632419984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010761727435054</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031089646705841</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.027252047899843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9928156800560419</v>
+        <v>1.002278684450217</v>
       </c>
       <c r="D4">
-        <v>1.000545460248114</v>
+        <v>1.014036236777454</v>
       </c>
       <c r="E4">
-        <v>0.9998062289465415</v>
+        <v>1.007938800026573</v>
       </c>
       <c r="F4">
-        <v>0.9733678346868818</v>
+        <v>1.019918853948287</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043285807014643</v>
+        <v>1.042874262457506</v>
       </c>
       <c r="J4">
-        <v>1.012404964135089</v>
+        <v>1.0216242803123</v>
       </c>
       <c r="K4">
-        <v>1.010637306500374</v>
+        <v>1.023968157755337</v>
       </c>
       <c r="L4">
-        <v>1.009906993176865</v>
+        <v>1.017942345763967</v>
       </c>
       <c r="M4">
-        <v>0.9837986813795978</v>
+        <v>1.029782675993179</v>
       </c>
       <c r="N4">
-        <v>1.008236291552964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011137663160297</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032143331561626</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.028015802514549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9939862849962108</v>
+        <v>1.003217259915016</v>
       </c>
       <c r="D5">
-        <v>1.001491782156142</v>
+        <v>1.014719048482899</v>
       </c>
       <c r="E5">
-        <v>1.00073691996084</v>
+        <v>1.008673404691814</v>
       </c>
       <c r="F5">
-        <v>0.9752524935579489</v>
+        <v>1.020702228168711</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043552372077166</v>
+        <v>1.042994283696258</v>
       </c>
       <c r="J5">
-        <v>1.013085502085057</v>
+        <v>1.022085919525741</v>
       </c>
       <c r="K5">
-        <v>1.011348086837684</v>
+        <v>1.024422785744884</v>
       </c>
       <c r="L5">
-        <v>1.010602081992974</v>
+        <v>1.018446261141923</v>
       </c>
       <c r="M5">
-        <v>0.9854267063850589</v>
+        <v>1.030338552949983</v>
       </c>
       <c r="N5">
-        <v>1.008461374758327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011295340782498</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032583275943362</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.028344558320176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9941819363958847</v>
+        <v>1.003378717006358</v>
       </c>
       <c r="D6">
-        <v>1.001650012158963</v>
+        <v>1.014840157261727</v>
       </c>
       <c r="E6">
-        <v>1.000892553431485</v>
+        <v>1.008800345020729</v>
       </c>
       <c r="F6">
-        <v>0.9755673449389657</v>
+        <v>1.020835301637746</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043596655959565</v>
+        <v>1.043015770029318</v>
       </c>
       <c r="J6">
-        <v>1.013199162976618</v>
+        <v>1.022167429396544</v>
       </c>
       <c r="K6">
-        <v>1.011466839744363</v>
+        <v>1.024505552106707</v>
       </c>
       <c r="L6">
-        <v>1.010718227086605</v>
+        <v>1.018534474761292</v>
       </c>
       <c r="M6">
-        <v>0.9856986277974031</v>
+        <v>1.030433459759226</v>
       </c>
       <c r="N6">
-        <v>1.008498967037181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011323469591397</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032658389152572</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.028411966212136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9928313822975328</v>
+        <v>1.002303166895883</v>
       </c>
       <c r="D7">
-        <v>1.000558149639761</v>
+        <v>1.014063568396778</v>
       </c>
       <c r="E7">
-        <v>0.9998187075930464</v>
+        <v>1.007959289498676</v>
       </c>
       <c r="F7">
-        <v>0.9733931250978863</v>
+        <v>1.019934491633729</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043289400704804</v>
+        <v>1.042880129710774</v>
       </c>
       <c r="J7">
-        <v>1.012414098235908</v>
+        <v>1.021642071165943</v>
       </c>
       <c r="K7">
-        <v>1.010646843749578</v>
+        <v>1.023992225225886</v>
       </c>
       <c r="L7">
-        <v>1.009916318945952</v>
+        <v>1.017959623233082</v>
       </c>
       <c r="M7">
-        <v>0.9838205317856844</v>
+        <v>1.029795211194093</v>
       </c>
       <c r="N7">
-        <v>1.008239312610589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011144531487618</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032153252449412</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.028053254671141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9870521211358955</v>
+        <v>0.9977165076412636</v>
       </c>
       <c r="D8">
-        <v>0.9958956509017975</v>
+        <v>1.010756467620289</v>
       </c>
       <c r="E8">
-        <v>0.9952356831469045</v>
+        <v>1.004383050126405</v>
       </c>
       <c r="F8">
-        <v>0.9640648773128594</v>
+        <v>1.016110871804059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041935414122954</v>
+        <v>1.042274657743368</v>
       </c>
       <c r="J8">
-        <v>1.009042698895015</v>
+        <v>1.019391157154614</v>
       </c>
       <c r="K8">
-        <v>1.007131506737996</v>
+        <v>1.021792680641431</v>
       </c>
       <c r="L8">
-        <v>1.00648057924446</v>
+        <v>1.015503975744702</v>
       </c>
       <c r="M8">
-        <v>0.9757546655059148</v>
+        <v>1.027076945222625</v>
       </c>
       <c r="N8">
-        <v>1.007124219747189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010376864465794</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030001898572157</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.026502587930589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9763190114084889</v>
+        <v>0.9892938826373621</v>
       </c>
       <c r="D9">
-        <v>0.9872768861426636</v>
+        <v>1.004722251586871</v>
       </c>
       <c r="E9">
-        <v>0.9867739523552348</v>
+        <v>0.997860521132878</v>
       </c>
       <c r="F9">
-        <v>0.9466135723468202</v>
+        <v>1.009150230529236</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039274333236074</v>
+        <v>1.041067459083132</v>
       </c>
       <c r="J9">
-        <v>1.002736642378905</v>
+        <v>1.015230449750738</v>
       </c>
       <c r="K9">
-        <v>1.000579815945904</v>
+        <v>1.017739175366204</v>
       </c>
       <c r="L9">
-        <v>1.000085320793858</v>
+        <v>1.010988405523732</v>
       </c>
       <c r="M9">
-        <v>0.9606365697115542</v>
+        <v>1.022096575782243</v>
       </c>
       <c r="N9">
-        <v>1.005038515543181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008955647052669</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.026060200303182</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.023633159981509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9687487573981481</v>
+        <v>0.9835348010538427</v>
       </c>
       <c r="D10">
-        <v>0.9812279831726644</v>
+        <v>1.000647861705034</v>
       </c>
       <c r="E10">
-        <v>0.9808425255169725</v>
+        <v>0.9934443806807051</v>
       </c>
       <c r="F10">
-        <v>0.9341821516821488</v>
+        <v>1.004674502741665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037302158282281</v>
+        <v>1.04020107328743</v>
       </c>
       <c r="J10">
-        <v>0.9982595965481073</v>
+        <v>1.012417264778487</v>
       </c>
       <c r="K10">
-        <v>0.9959446506201159</v>
+        <v>1.015005428652749</v>
       </c>
       <c r="L10">
-        <v>0.9955665088143475</v>
+        <v>1.007933016315179</v>
       </c>
       <c r="M10">
-        <v>0.94985094734085</v>
+        <v>1.018959867414617</v>
       </c>
       <c r="N10">
-        <v>1.003557901035629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007998274632832</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0236300325164</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.021717279567894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9653610027391073</v>
+        <v>0.981683903245001</v>
       </c>
       <c r="D11">
-        <v>0.9785288220982039</v>
+        <v>0.999442942555344</v>
       </c>
       <c r="E11">
-        <v>0.9781976127187304</v>
+        <v>0.992114569838211</v>
       </c>
       <c r="F11">
-        <v>0.9285803616864443</v>
+        <v>1.005202855445805</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036397895382715</v>
+        <v>1.040043468942755</v>
       </c>
       <c r="J11">
-        <v>0.9962493404800516</v>
+        <v>1.01183901605799</v>
       </c>
       <c r="K11">
-        <v>0.9938673397815762</v>
+        <v>1.014375371815381</v>
       </c>
       <c r="L11">
-        <v>0.9935427452009924</v>
+        <v>1.007186741855923</v>
       </c>
       <c r="M11">
-        <v>0.9449877119549334</v>
+        <v>1.020027316038847</v>
       </c>
       <c r="N11">
-        <v>1.002893151022781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007834892459039</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024917957010451</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021305246094816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9640850727374479</v>
+        <v>0.9812230187120091</v>
       </c>
       <c r="D12">
-        <v>0.9775134623656386</v>
+        <v>0.9991807824967485</v>
       </c>
       <c r="E12">
-        <v>0.9772029443905611</v>
+        <v>0.9918239273266032</v>
       </c>
       <c r="F12">
-        <v>0.9264638304177273</v>
+        <v>1.006231658901231</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036054141435319</v>
+        <v>1.04006367637623</v>
       </c>
       <c r="J12">
-        <v>0.9954912199819357</v>
+        <v>1.0118438756582</v>
       </c>
       <c r="K12">
-        <v>0.9930845323780106</v>
+        <v>1.014323694268487</v>
       </c>
       <c r="L12">
-        <v>0.9927803323201456</v>
+        <v>1.007109462426774</v>
       </c>
       <c r="M12">
-        <v>0.9431498452767541</v>
+        <v>1.021240436135828</v>
       </c>
       <c r="N12">
-        <v>1.002642469008714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007863787460504</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.026208224246567</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021268707109159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9643595773393501</v>
+        <v>0.9818123274414134</v>
       </c>
       <c r="D13">
-        <v>0.9777318513888417</v>
+        <v>0.9996438203786326</v>
       </c>
       <c r="E13">
-        <v>0.9774168699735291</v>
+        <v>0.9923216011290705</v>
       </c>
       <c r="F13">
-        <v>0.9269195026725617</v>
+        <v>1.007741409999458</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036128239351044</v>
+        <v>1.04023089131306</v>
       </c>
       <c r="J13">
-        <v>0.9956543674899905</v>
+        <v>1.012311359746887</v>
       </c>
       <c r="K13">
-        <v>0.9932529651991855</v>
+        <v>1.014733790550597</v>
       </c>
       <c r="L13">
-        <v>0.9929443671063849</v>
+        <v>1.007552866639093</v>
       </c>
       <c r="M13">
-        <v>0.9435455393107413</v>
+        <v>1.022678243661644</v>
       </c>
       <c r="N13">
-        <v>1.002696415151136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008048249570281</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.027624753739081</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021556130027082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.965255898893377</v>
+        <v>0.9826944286331204</v>
       </c>
       <c r="D14">
-        <v>0.9784451573232467</v>
+        <v>1.000293375726008</v>
       </c>
       <c r="E14">
-        <v>0.9781156470564271</v>
+        <v>0.9930218859847152</v>
       </c>
       <c r="F14">
-        <v>0.9284061563120389</v>
+        <v>1.008990739828285</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03636964305143</v>
+        <v>1.040412364957333</v>
       </c>
       <c r="J14">
-        <v>0.9961869110220927</v>
+        <v>1.012842003218146</v>
       </c>
       <c r="K14">
-        <v>0.9938028651516787</v>
+        <v>1.015226723131318</v>
       </c>
       <c r="L14">
-        <v>0.9934799459134858</v>
+        <v>1.008093753550976</v>
       </c>
       <c r="M14">
-        <v>0.9448364499615136</v>
+        <v>1.023761821771411</v>
       </c>
       <c r="N14">
-        <v>1.002872507668225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008245903085367</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.028656159013236</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.021906112460236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9658057905737164</v>
+        <v>0.9831487149134027</v>
       </c>
       <c r="D15">
-        <v>0.9788829324036196</v>
+        <v>1.000621666980199</v>
       </c>
       <c r="E15">
-        <v>0.9785445432005669</v>
+        <v>0.9933741414419526</v>
       </c>
       <c r="F15">
-        <v>0.9293172996935289</v>
+        <v>1.009448490521144</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036517327027797</v>
+        <v>1.04049247588221</v>
       </c>
       <c r="J15">
-        <v>0.9965134944785399</v>
+        <v>1.013084281208758</v>
       </c>
       <c r="K15">
-        <v>0.9941401719206594</v>
+        <v>1.015460006623702</v>
       </c>
       <c r="L15">
-        <v>0.993808496753624</v>
+        <v>1.008349473634604</v>
       </c>
       <c r="M15">
-        <v>0.9456275778125067</v>
+        <v>1.024123444990028</v>
       </c>
       <c r="N15">
-        <v>1.002980498537513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008332307889564</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028979813327022</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.022077034844758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9689711891285767</v>
+        <v>0.9854574472802357</v>
       </c>
       <c r="D16">
-        <v>0.9814053699514822</v>
+        <v>1.002243672278494</v>
       </c>
       <c r="E16">
-        <v>0.9810163860006302</v>
+        <v>0.9951287406678589</v>
       </c>
       <c r="F16">
-        <v>0.9345490729529923</v>
+        <v>1.011093761959668</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037361085414409</v>
+        <v>1.040837155416717</v>
       </c>
       <c r="J16">
-        <v>0.9983914462448235</v>
+        <v>1.014181494792451</v>
       </c>
       <c r="K16">
-        <v>0.9960809809267654</v>
+        <v>1.016535975339775</v>
       </c>
       <c r="L16">
-        <v>0.9956993544769467</v>
+        <v>1.009549569551998</v>
       </c>
       <c r="M16">
-        <v>0.9501694354014392</v>
+        <v>1.025229464847754</v>
       </c>
       <c r="N16">
-        <v>1.003601502605849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008701013474832</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029814977854741</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.022841032105591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9709266405616269</v>
+        <v>0.986774958294616</v>
       </c>
       <c r="D17">
-        <v>0.9829657097301604</v>
+        <v>1.003156179740712</v>
       </c>
       <c r="E17">
-        <v>0.9825459164816394</v>
+        <v>0.9961165171353269</v>
       </c>
       <c r="F17">
-        <v>0.9377702826632059</v>
+        <v>1.011706795196172</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037876674354914</v>
+        <v>1.041005861317866</v>
       </c>
       <c r="J17">
-        <v>0.999549806052486</v>
+        <v>1.014751016450857</v>
       </c>
       <c r="K17">
-        <v>0.9972791527048259</v>
+        <v>1.01710909508138</v>
       </c>
       <c r="L17">
-        <v>0.9968670602320996</v>
+        <v>1.010192982233286</v>
       </c>
       <c r="M17">
-        <v>0.9529651103289554</v>
+        <v>1.025512628880764</v>
       </c>
       <c r="N17">
-        <v>1.003984570178792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00888214737002</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029908654871278</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.023248896616532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9720567072220471</v>
+        <v>0.9873290698087471</v>
       </c>
       <c r="D18">
-        <v>0.9838681708268375</v>
+        <v>1.003505441924232</v>
       </c>
       <c r="E18">
-        <v>0.9834307307593795</v>
+        <v>0.9965032032174895</v>
       </c>
       <c r="F18">
-        <v>0.939628250928514</v>
+        <v>1.011321308953058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038172578358029</v>
+        <v>1.041028380136892</v>
       </c>
       <c r="J18">
-        <v>1.000218590504856</v>
+        <v>1.014879466583966</v>
       </c>
       <c r="K18">
-        <v>0.9979712944228973</v>
+        <v>1.01726393997373</v>
       </c>
       <c r="L18">
-        <v>0.9975417349313954</v>
+        <v>1.010382570155954</v>
       </c>
       <c r="M18">
-        <v>0.9545773391625286</v>
+        <v>1.024947442016647</v>
       </c>
       <c r="N18">
-        <v>1.004205742135476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008904284535393</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.02922176190095</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.02334653846957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.972440278195697</v>
+        <v>0.9871854112656527</v>
       </c>
       <c r="D19">
-        <v>0.9841746096317717</v>
+        <v>1.003352228870423</v>
       </c>
       <c r="E19">
-        <v>0.9837312064089768</v>
+        <v>0.9963404074558089</v>
       </c>
       <c r="F19">
-        <v>0.9402583059538616</v>
+        <v>1.009933634376966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038272663712449</v>
+        <v>1.040920518892275</v>
       </c>
       <c r="J19">
-        <v>1.000445482783868</v>
+        <v>1.014603919652783</v>
       </c>
       <c r="K19">
-        <v>0.998206173707331</v>
+        <v>1.017049114045218</v>
       </c>
       <c r="L19">
-        <v>0.9977707090233167</v>
+        <v>1.010157726243794</v>
       </c>
       <c r="M19">
-        <v>0.9551240095083103</v>
+        <v>1.023519439633185</v>
       </c>
       <c r="N19">
-        <v>1.004280778043825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008784550111909</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027763073106021</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.023201153660449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9707179341916589</v>
+        <v>0.985061286449555</v>
       </c>
       <c r="D20">
-        <v>0.9827990974816431</v>
+        <v>1.00174946988255</v>
       </c>
       <c r="E20">
-        <v>0.9823825760654105</v>
+        <v>0.9946168682425868</v>
       </c>
       <c r="F20">
-        <v>0.9374268598608327</v>
+        <v>1.005858212196021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037821858333317</v>
+        <v>1.040442220354338</v>
       </c>
       <c r="J20">
-        <v>0.9994262398478632</v>
+        <v>1.01318046930911</v>
       </c>
       <c r="K20">
-        <v>0.9971513009714161</v>
+        <v>1.015761626568957</v>
       </c>
       <c r="L20">
-        <v>0.9967424456425199</v>
+        <v>1.008755038612393</v>
       </c>
       <c r="M20">
-        <v>0.9526670851237155</v>
+        <v>1.019798828263427</v>
       </c>
       <c r="N20">
-        <v>1.003943706397381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008260611391462</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.024283252671566</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.022294815121084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9649924485982186</v>
+        <v>0.9806019467731131</v>
       </c>
       <c r="D21">
-        <v>0.9782354655151367</v>
+        <v>0.9985860352445515</v>
       </c>
       <c r="E21">
-        <v>0.9779102184082019</v>
+        <v>0.9911937657995815</v>
       </c>
       <c r="F21">
-        <v>0.9279693864047378</v>
+        <v>1.002021285126603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036298775614364</v>
+        <v>1.039725411871306</v>
       </c>
       <c r="J21">
-        <v>0.9960304111085985</v>
+        <v>1.010933692712199</v>
       </c>
       <c r="K21">
-        <v>0.9936412480532344</v>
+        <v>1.013594245228507</v>
       </c>
       <c r="L21">
-        <v>0.9933225318536705</v>
+        <v>1.006343917933679</v>
       </c>
       <c r="M21">
-        <v>0.9444571980789159</v>
+        <v>1.016964464561887</v>
       </c>
       <c r="N21">
-        <v>1.002820758543114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007489676410991</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.021998382678921</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020765632825346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9612903632531148</v>
+        <v>0.9777724958729722</v>
       </c>
       <c r="D22">
-        <v>0.9752918084362419</v>
+        <v>0.9965833909977933</v>
       </c>
       <c r="E22">
-        <v>0.9750270994213175</v>
+        <v>0.9890328554127918</v>
       </c>
       <c r="F22">
-        <v>0.9218144118574478</v>
+        <v>0.9997242178144817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035295438644281</v>
+        <v>1.03926436271488</v>
       </c>
       <c r="J22">
-        <v>0.993828862164845</v>
+        <v>1.009520254963393</v>
       </c>
       <c r="K22">
-        <v>0.9913691611408172</v>
+        <v>1.012222836792113</v>
       </c>
       <c r="L22">
-        <v>0.9911100558151538</v>
+        <v>1.004824749951528</v>
       </c>
       <c r="M22">
-        <v>0.9391119574267176</v>
+        <v>1.015301139984202</v>
       </c>
       <c r="N22">
-        <v>1.002092816166133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007005413898915</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02068193654446</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.019782187092264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.963262985844845</v>
+        <v>0.9792658817561074</v>
       </c>
       <c r="D23">
-        <v>0.9768596145991996</v>
+        <v>0.9976309542443295</v>
       </c>
       <c r="E23">
-        <v>0.9765625024923306</v>
+        <v>0.9901710743898782</v>
       </c>
       <c r="F23">
-        <v>0.9250981182699074</v>
+        <v>1.000940281923734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035831772724747</v>
+        <v>1.039506443268193</v>
       </c>
       <c r="J23">
-        <v>0.9950024802688068</v>
+        <v>1.010260976482092</v>
       </c>
       <c r="K23">
-        <v>0.9925800483806941</v>
+        <v>1.012935585499541</v>
       </c>
       <c r="L23">
-        <v>0.9922890532587881</v>
+        <v>1.005622399703465</v>
       </c>
       <c r="M23">
-        <v>0.9419638460924757</v>
+        <v>1.016180754436146</v>
       </c>
       <c r="N23">
-        <v>1.002480865052152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007258306971712</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.021378111900312</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02027632630783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9708122720324305</v>
+        <v>0.985048454796505</v>
       </c>
       <c r="D24">
-        <v>0.9828744059970602</v>
+        <v>1.001718387987321</v>
       </c>
       <c r="E24">
-        <v>0.9824564051827346</v>
+        <v>0.9945970036675662</v>
       </c>
       <c r="F24">
-        <v>0.9375821022434461</v>
+        <v>1.005659407997218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037846642237865</v>
+        <v>1.040424057237791</v>
       </c>
       <c r="J24">
-        <v>0.9994820952705176</v>
+        <v>1.013134453404471</v>
       </c>
       <c r="K24">
-        <v>0.9972090924216261</v>
+        <v>1.015715393859403</v>
       </c>
       <c r="L24">
-        <v>0.9967987734316632</v>
+        <v>1.00871967102754</v>
       </c>
       <c r="M24">
-        <v>0.9528018066925786</v>
+        <v>1.019587861699623</v>
       </c>
       <c r="N24">
-        <v>1.003962177964701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008240693663192</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.024074677572973</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.022234211660311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.979163329687836</v>
+        <v>0.991530875729962</v>
       </c>
       <c r="D25">
-        <v>0.9895559352450406</v>
+        <v>1.00633329639245</v>
       </c>
       <c r="E25">
-        <v>0.989010258575686</v>
+        <v>0.9995895258857312</v>
       </c>
       <c r="F25">
-        <v>0.9512564693005048</v>
+        <v>1.010984876665453</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039996174999644</v>
+        <v>1.041402656216165</v>
       </c>
       <c r="J25">
-        <v>1.004412870458787</v>
+        <v>1.016346660309837</v>
       </c>
       <c r="K25">
-        <v>1.002318574795034</v>
+        <v>1.018834085264805</v>
       </c>
       <c r="L25">
-        <v>1.001781605913245</v>
+        <v>1.012194217279798</v>
       </c>
       <c r="M25">
-        <v>0.9646617328888613</v>
+        <v>1.023415026718318</v>
       </c>
       <c r="N25">
-        <v>1.005592905341112</v>
+        <v>1.00933841572342</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.02710368649128</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.024436448733442</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9964986781090116</v>
+        <v>0.9973728303765279</v>
       </c>
       <c r="D2">
-        <v>1.009869499708814</v>
+        <v>1.010880042481876</v>
       </c>
       <c r="E2">
-        <v>1.003434718016199</v>
+        <v>1.004198390266188</v>
       </c>
       <c r="F2">
-        <v>1.01510548863992</v>
+        <v>1.015484174566566</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042104145037932</v>
+        <v>1.04239148070308</v>
       </c>
       <c r="J2">
-        <v>1.01878461983501</v>
+        <v>1.019632404585909</v>
       </c>
       <c r="K2">
-        <v>1.021193028016155</v>
+        <v>1.022189853794252</v>
       </c>
       <c r="L2">
-        <v>1.01484640826785</v>
+        <v>1.015599543089967</v>
       </c>
       <c r="M2">
-        <v>1.026358315984767</v>
+        <v>1.026731924080944</v>
       </c>
       <c r="N2">
-        <v>1.010168833717902</v>
+        <v>1.012411285889057</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029433143034914</v>
+        <v>1.029728833363305</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.026055277307686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.026769062297743</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017990602422725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000032406073376</v>
+        <v>1.000750506651312</v>
       </c>
       <c r="D3">
-        <v>1.012412856449187</v>
+        <v>1.01318974371506</v>
       </c>
       <c r="E3">
-        <v>1.006184879229682</v>
+        <v>1.006812965613203</v>
       </c>
       <c r="F3">
-        <v>1.018044237185122</v>
+        <v>1.01835490206498</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04258214395446</v>
+        <v>1.042818960268129</v>
       </c>
       <c r="J3">
-        <v>1.02052218770556</v>
+        <v>1.021220732987016</v>
       </c>
       <c r="K3">
-        <v>1.022889338329509</v>
+        <v>1.023656595697092</v>
       </c>
       <c r="L3">
-        <v>1.016739230329986</v>
+        <v>1.017359409187455</v>
       </c>
       <c r="M3">
-        <v>1.028451329283953</v>
+        <v>1.028758193929895</v>
       </c>
       <c r="N3">
-        <v>1.010761727435054</v>
+        <v>1.012841307449409</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031089646705841</v>
+        <v>1.031332512682005</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.027252047899843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.027803221841263</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018291502910739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002278684450217</v>
+        <v>1.002898800230961</v>
       </c>
       <c r="D4">
-        <v>1.014036236777454</v>
+        <v>1.014665259367658</v>
       </c>
       <c r="E4">
-        <v>1.007938800026573</v>
+        <v>1.008481617660076</v>
       </c>
       <c r="F4">
-        <v>1.019918853948287</v>
+        <v>1.020186898277776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042874262457506</v>
+        <v>1.043079254975934</v>
       </c>
       <c r="J4">
-        <v>1.0216242803123</v>
+        <v>1.022228643951325</v>
       </c>
       <c r="K4">
-        <v>1.023968157755337</v>
+        <v>1.024589851977616</v>
       </c>
       <c r="L4">
-        <v>1.017942345763967</v>
+        <v>1.01847874358589</v>
       </c>
       <c r="M4">
-        <v>1.029782675993179</v>
+        <v>1.030047640459879</v>
       </c>
       <c r="N4">
-        <v>1.011137663160297</v>
+        <v>1.013114153271252</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032143331561626</v>
+        <v>1.032353035608967</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.028015802514549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.028464126269037</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018480614898949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003217259915016</v>
+        <v>1.003796612727715</v>
       </c>
       <c r="D5">
-        <v>1.014719048482899</v>
+        <v>1.015286360159523</v>
       </c>
       <c r="E5">
-        <v>1.008673404691814</v>
+        <v>1.009180715165945</v>
       </c>
       <c r="F5">
-        <v>1.020702228168711</v>
+        <v>1.020952563111237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042994283696258</v>
+        <v>1.043186008433282</v>
       </c>
       <c r="J5">
-        <v>1.022085919525741</v>
+        <v>1.022650992534699</v>
       </c>
       <c r="K5">
-        <v>1.024422785744884</v>
+        <v>1.02498366349226</v>
       </c>
       <c r="L5">
-        <v>1.018446261141923</v>
+        <v>1.018947732289412</v>
       </c>
       <c r="M5">
-        <v>1.030338552949983</v>
+        <v>1.030586088567222</v>
       </c>
       <c r="N5">
-        <v>1.011295340782498</v>
+        <v>1.013228659122327</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032583275943362</v>
+        <v>1.032779185943389</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.028344558320176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.028750586701605</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018560418786414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003378717006358</v>
+        <v>1.003950951418684</v>
       </c>
       <c r="D6">
-        <v>1.014840157261727</v>
+        <v>1.015396762981168</v>
       </c>
       <c r="E6">
-        <v>1.008800345020729</v>
+        <v>1.00930144621091</v>
       </c>
       <c r="F6">
-        <v>1.020835301637746</v>
+        <v>1.021082545938809</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043015770029318</v>
+        <v>1.043205168782662</v>
       </c>
       <c r="J6">
-        <v>1.022167429396544</v>
+        <v>1.022725631558584</v>
       </c>
       <c r="K6">
-        <v>1.024505552106707</v>
+        <v>1.025055874191035</v>
       </c>
       <c r="L6">
-        <v>1.018534474761292</v>
+        <v>1.019029834648356</v>
       </c>
       <c r="M6">
-        <v>1.030433459759226</v>
+        <v>1.030677952023412</v>
       </c>
       <c r="N6">
-        <v>1.011323469591397</v>
+        <v>1.013249117660054</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032658389152572</v>
+        <v>1.03285189049579</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.028411966212136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.028811397597729</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018575713648465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002303166895883</v>
+        <v>1.002928637987456</v>
       </c>
       <c r="D7">
-        <v>1.014063568396778</v>
+        <v>1.014696061520654</v>
       </c>
       <c r="E7">
-        <v>1.007959289498676</v>
+        <v>1.008506909384773</v>
       </c>
       <c r="F7">
-        <v>1.019934491633729</v>
+        <v>1.020204849479049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042880129710774</v>
+        <v>1.043087055359586</v>
       </c>
       <c r="J7">
-        <v>1.021642071165943</v>
+        <v>1.022251661056425</v>
       </c>
       <c r="K7">
-        <v>1.023992225225886</v>
+        <v>1.02461735253815</v>
       </c>
       <c r="L7">
-        <v>1.017959623233082</v>
+        <v>1.018500769048664</v>
       </c>
       <c r="M7">
-        <v>1.029795211194093</v>
+        <v>1.030062463758855</v>
       </c>
       <c r="N7">
-        <v>1.011144531487618</v>
+        <v>1.01314685699418</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032153252449412</v>
+        <v>1.03236476739073</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.028053254671141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.028506000661962</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018488659867094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9977165076412636</v>
+        <v>0.9985570104845447</v>
       </c>
       <c r="D8">
-        <v>1.010756467620289</v>
+        <v>1.011702500248265</v>
       </c>
       <c r="E8">
-        <v>1.004383050126405</v>
+        <v>1.005118043462708</v>
       </c>
       <c r="F8">
-        <v>1.016110871804059</v>
+        <v>1.016474813925263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042274657743368</v>
+        <v>1.042551813503003</v>
       </c>
       <c r="J8">
-        <v>1.019391157154614</v>
+        <v>1.020207153763801</v>
       </c>
       <c r="K8">
-        <v>1.021792680641431</v>
+        <v>1.022726253091937</v>
       </c>
       <c r="L8">
-        <v>1.015503975744702</v>
+        <v>1.016229131048789</v>
       </c>
       <c r="M8">
-        <v>1.027076945222625</v>
+        <v>1.027436153493805</v>
       </c>
       <c r="N8">
-        <v>1.010376864465794</v>
+        <v>1.012646304226226</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030001898572157</v>
+        <v>1.030286191997487</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.026502587930589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.02717390429335</v>
+      </c>
+      <c r="S8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T8">
+        <v>1.018105310347566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9892938826373621</v>
+        <v>0.9905174894519689</v>
       </c>
       <c r="D9">
-        <v>1.004722251586871</v>
+        <v>1.006232202543743</v>
       </c>
       <c r="E9">
-        <v>0.997860521132878</v>
+        <v>0.9989275401111829</v>
       </c>
       <c r="F9">
-        <v>1.009150230529236</v>
+        <v>1.009681750375468</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041067459083132</v>
+        <v>1.041468107218593</v>
       </c>
       <c r="J9">
-        <v>1.015230449750738</v>
+        <v>1.016409601399143</v>
       </c>
       <c r="K9">
-        <v>1.017739175366204</v>
+        <v>1.019224969418061</v>
       </c>
       <c r="L9">
-        <v>1.010988405523732</v>
+        <v>1.012038041226193</v>
       </c>
       <c r="M9">
-        <v>1.022096575782243</v>
+        <v>1.022619676907986</v>
       </c>
       <c r="N9">
-        <v>1.008955647052669</v>
+        <v>1.011626841898071</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.026060200303182</v>
+        <v>1.026474208163201</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.023633159981509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02469468398397</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017372156575223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9835348010538427</v>
+        <v>0.9850552818203722</v>
       </c>
       <c r="D10">
-        <v>1.000647861705034</v>
+        <v>1.002567820270199</v>
       </c>
       <c r="E10">
-        <v>0.9934443806807051</v>
+        <v>0.9947682454087116</v>
       </c>
       <c r="F10">
-        <v>1.004674502741665</v>
+        <v>1.005335746017101</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04020107328743</v>
+        <v>1.040697557626173</v>
       </c>
       <c r="J10">
-        <v>1.012417264778487</v>
+        <v>1.013874647757873</v>
       </c>
       <c r="K10">
-        <v>1.015005428652749</v>
+        <v>1.01689086619002</v>
       </c>
       <c r="L10">
-        <v>1.007933016315179</v>
+        <v>1.009232607690245</v>
       </c>
       <c r="M10">
-        <v>1.018959867414617</v>
+        <v>1.019609325607837</v>
       </c>
       <c r="N10">
-        <v>1.007998274632832</v>
+        <v>1.011059911262383</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0236300325164</v>
+        <v>1.024144014137967</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021717279567894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.0230630680856</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016880144422445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.981683903245001</v>
+        <v>0.9833234815229152</v>
       </c>
       <c r="D11">
-        <v>0.999442942555344</v>
+        <v>1.001502363516295</v>
       </c>
       <c r="E11">
-        <v>0.992114569838211</v>
+        <v>0.9935406896430853</v>
       </c>
       <c r="F11">
-        <v>1.005202855445805</v>
+        <v>1.00591048131029</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040043468942755</v>
+        <v>1.040577927232022</v>
       </c>
       <c r="J11">
-        <v>1.01183901605799</v>
+        <v>1.013406864754614</v>
       </c>
       <c r="K11">
-        <v>1.014375371815381</v>
+        <v>1.016396002968472</v>
       </c>
       <c r="L11">
-        <v>1.007186741855923</v>
+        <v>1.008585455876889</v>
       </c>
       <c r="M11">
-        <v>1.020027316038847</v>
+        <v>1.020721788798643</v>
       </c>
       <c r="N11">
-        <v>1.007834892459039</v>
+        <v>1.011186226180957</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024917957010451</v>
+        <v>1.025467277205155</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021305246094816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022749821673254</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016822780499736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9812230187120091</v>
+        <v>0.9828885587642714</v>
       </c>
       <c r="D12">
-        <v>0.9991807824967485</v>
+        <v>1.001266994546697</v>
       </c>
       <c r="E12">
-        <v>0.9918239273266032</v>
+        <v>0.9932712501802825</v>
       </c>
       <c r="F12">
-        <v>1.006231658901231</v>
+        <v>1.006946459805189</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04006367637623</v>
+        <v>1.040605314742511</v>
       </c>
       <c r="J12">
-        <v>1.0118438756582</v>
+        <v>1.013435185194837</v>
       </c>
       <c r="K12">
-        <v>1.014323694268487</v>
+        <v>1.016369961130146</v>
       </c>
       <c r="L12">
-        <v>1.007109462426774</v>
+        <v>1.008528507870148</v>
       </c>
       <c r="M12">
-        <v>1.021240436135828</v>
+        <v>1.021941775785026</v>
       </c>
       <c r="N12">
-        <v>1.007863787460504</v>
+        <v>1.01131480702772</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.026208224246567</v>
+        <v>1.026762783300568</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021268707109159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.022731409070732</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016850459601561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9818123274414134</v>
+        <v>0.9834233672309697</v>
       </c>
       <c r="D13">
-        <v>0.9996438203786326</v>
+        <v>1.001663268379456</v>
       </c>
       <c r="E13">
-        <v>0.9923216011290705</v>
+        <v>0.9937199701811761</v>
       </c>
       <c r="F13">
-        <v>1.007741409999458</v>
+        <v>1.008429704338187</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04023089131306</v>
+        <v>1.040752884918884</v>
       </c>
       <c r="J13">
-        <v>1.012311359746887</v>
+        <v>1.013850979017425</v>
       </c>
       <c r="K13">
-        <v>1.014733790550597</v>
+        <v>1.016714744953289</v>
       </c>
       <c r="L13">
-        <v>1.007552866639093</v>
+        <v>1.008924040780932</v>
       </c>
       <c r="M13">
-        <v>1.022678243661644</v>
+        <v>1.023353669420629</v>
       </c>
       <c r="N13">
-        <v>1.008048249570281</v>
+        <v>1.01142202677574</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.027624753739081</v>
+        <v>1.028158685526073</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021556130027082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.022972405274072</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016950172339972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9826944286331204</v>
+        <v>0.9842320460593129</v>
       </c>
       <c r="D14">
-        <v>1.000293375726008</v>
+        <v>1.002224987469964</v>
       </c>
       <c r="E14">
-        <v>0.9930218859847152</v>
+        <v>0.9943553354773975</v>
       </c>
       <c r="F14">
-        <v>1.008990739828285</v>
+        <v>1.009645975567176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040412364957333</v>
+        <v>1.040908967159391</v>
       </c>
       <c r="J14">
-        <v>1.012842003218146</v>
+        <v>1.014312442840653</v>
       </c>
       <c r="K14">
-        <v>1.015226723131318</v>
+        <v>1.017121979369699</v>
       </c>
       <c r="L14">
-        <v>1.008093753550976</v>
+        <v>1.009401602578357</v>
       </c>
       <c r="M14">
-        <v>1.023761821771411</v>
+        <v>1.024404980424044</v>
       </c>
       <c r="N14">
-        <v>1.008245903085367</v>
+        <v>1.011487235818799</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.028656159013236</v>
+        <v>1.029164513817546</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.021906112460236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023261924626227</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017052258455122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9831487149134027</v>
+        <v>0.9846510520467152</v>
       </c>
       <c r="D15">
-        <v>1.000621666980199</v>
+        <v>1.002511068659552</v>
       </c>
       <c r="E15">
-        <v>0.9933741414419526</v>
+        <v>0.9946766725689182</v>
       </c>
       <c r="F15">
-        <v>1.009448490521144</v>
+        <v>1.010088348387705</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04049247588221</v>
+        <v>1.040977180701279</v>
       </c>
       <c r="J15">
-        <v>1.013084281208758</v>
+        <v>1.014521557079399</v>
       </c>
       <c r="K15">
-        <v>1.015460006623702</v>
+        <v>1.017314119560206</v>
       </c>
       <c r="L15">
-        <v>1.008349473634604</v>
+        <v>1.009627191899247</v>
       </c>
       <c r="M15">
-        <v>1.024123444990028</v>
+        <v>1.024751603542486</v>
       </c>
       <c r="N15">
-        <v>1.008332307889564</v>
+        <v>1.011504707918351</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028979813327022</v>
+        <v>1.029476298836075</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022077034844758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.023404320598021</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017096414751816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9854574472802357</v>
+        <v>0.9868005265075778</v>
       </c>
       <c r="D16">
-        <v>1.002243672278494</v>
+        <v>1.003938261958741</v>
       </c>
       <c r="E16">
-        <v>0.9951287406678589</v>
+        <v>0.9962931186853123</v>
       </c>
       <c r="F16">
-        <v>1.011093761959668</v>
+        <v>1.011665959190115</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040837155416717</v>
+        <v>1.041269784174606</v>
       </c>
       <c r="J16">
-        <v>1.014181494792451</v>
+        <v>1.015469310590425</v>
       </c>
       <c r="K16">
-        <v>1.016535975339775</v>
+        <v>1.018200302238938</v>
       </c>
       <c r="L16">
-        <v>1.009549569551998</v>
+        <v>1.010692750515757</v>
       </c>
       <c r="M16">
-        <v>1.025229464847754</v>
+        <v>1.025791659321272</v>
       </c>
       <c r="N16">
-        <v>1.008701013474832</v>
+        <v>1.011550502458357</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029814977854741</v>
+        <v>1.030259339337755</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.022841032105591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024034420973886</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017277388256583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.986774958294616</v>
+        <v>0.9880413681884807</v>
       </c>
       <c r="D17">
-        <v>1.003156179740712</v>
+        <v>1.004752449481501</v>
       </c>
       <c r="E17">
-        <v>0.9961165171353269</v>
+        <v>0.9972150220085482</v>
       </c>
       <c r="F17">
-        <v>1.011706795196172</v>
+        <v>1.01224717101505</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041005861317866</v>
+        <v>1.041414185619882</v>
       </c>
       <c r="J17">
-        <v>1.014751016450857</v>
+        <v>1.015966984517899</v>
       </c>
       <c r="K17">
-        <v>1.01710909508138</v>
+        <v>1.018677661016884</v>
       </c>
       <c r="L17">
-        <v>1.010192982233286</v>
+        <v>1.011272058821697</v>
       </c>
       <c r="M17">
-        <v>1.025512628880764</v>
+        <v>1.026043817312801</v>
       </c>
       <c r="N17">
-        <v>1.00888214737002</v>
+        <v>1.011581696082861</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029908654871278</v>
+        <v>1.030328551345435</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.023248896616532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.024374820738789</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017365200244454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9873290698087471</v>
+        <v>0.9885751662638878</v>
       </c>
       <c r="D18">
-        <v>1.003505441924232</v>
+        <v>1.005073226326294</v>
       </c>
       <c r="E18">
-        <v>0.9965032032174895</v>
+        <v>0.9975851971345467</v>
       </c>
       <c r="F18">
-        <v>1.011321308953058</v>
+        <v>1.011854786740481</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041028380136892</v>
+        <v>1.041431310864847</v>
       </c>
       <c r="J18">
-        <v>1.014879466583966</v>
+        <v>1.016076848346535</v>
       </c>
       <c r="K18">
-        <v>1.01726393997373</v>
+        <v>1.018804960131327</v>
       </c>
       <c r="L18">
-        <v>1.010382570155954</v>
+        <v>1.011445743815045</v>
       </c>
       <c r="M18">
-        <v>1.024947442016647</v>
+        <v>1.025471981220796</v>
       </c>
       <c r="N18">
-        <v>1.008904284535393</v>
+        <v>1.011554973696632</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02922176190095</v>
+        <v>1.029636490165223</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02334653846957</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.024451856620945</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017368768663756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9871854112656527</v>
+        <v>0.9884560207110417</v>
       </c>
       <c r="D19">
-        <v>1.003352228870423</v>
+        <v>1.004950512362674</v>
       </c>
       <c r="E19">
-        <v>0.9963404074558089</v>
+        <v>0.9974450006306111</v>
       </c>
       <c r="F19">
-        <v>1.009933634376966</v>
+        <v>1.010480449530208</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040920518892275</v>
+        <v>1.041332880488608</v>
       </c>
       <c r="J19">
-        <v>1.014603919652783</v>
+        <v>1.015825129014172</v>
       </c>
       <c r="K19">
-        <v>1.017049114045218</v>
+        <v>1.018620249320126</v>
       </c>
       <c r="L19">
-        <v>1.010157726243794</v>
+        <v>1.011243201806886</v>
       </c>
       <c r="M19">
-        <v>1.023519439633185</v>
+        <v>1.024057109621578</v>
       </c>
       <c r="N19">
-        <v>1.008784550111909</v>
+        <v>1.011456896397975</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027763073106021</v>
+        <v>1.028188325442187</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023201153660449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02432838804767</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017300090021881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.985061286449555</v>
+        <v>0.9864821597400374</v>
       </c>
       <c r="D20">
-        <v>1.00174946988255</v>
+        <v>1.003544081671907</v>
       </c>
       <c r="E20">
-        <v>0.9946168682425868</v>
+        <v>0.9958539385142386</v>
       </c>
       <c r="F20">
-        <v>1.005858212196021</v>
+        <v>1.006475926904413</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040442220354338</v>
+        <v>1.040905773792524</v>
       </c>
       <c r="J20">
-        <v>1.01318046930911</v>
+        <v>1.014544303819286</v>
       </c>
       <c r="K20">
-        <v>1.015761626568957</v>
+        <v>1.017524897633198</v>
       </c>
       <c r="L20">
-        <v>1.008755038612393</v>
+        <v>1.009970085304301</v>
       </c>
       <c r="M20">
-        <v>1.019798828263427</v>
+        <v>1.02040585278447</v>
       </c>
       <c r="N20">
-        <v>1.008260611391462</v>
+        <v>1.011144149541818</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.024283252671566</v>
+        <v>1.024763658188904</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022294815121084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.023558296354485</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017017962332499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9806019467731131</v>
+        <v>0.9823537234804353</v>
       </c>
       <c r="D21">
-        <v>0.9985860352445515</v>
+        <v>1.000779807005178</v>
       </c>
       <c r="E21">
-        <v>0.9911937657995815</v>
+        <v>0.9927201929198138</v>
       </c>
       <c r="F21">
-        <v>1.002021285126603</v>
+        <v>1.002784718856688</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039725411871306</v>
+        <v>1.040299738621122</v>
       </c>
       <c r="J21">
-        <v>1.010933692712199</v>
+        <v>1.012608214991217</v>
       </c>
       <c r="K21">
-        <v>1.013594245228507</v>
+        <v>1.015746420749356</v>
       </c>
       <c r="L21">
-        <v>1.006343917933679</v>
+        <v>1.00784080857091</v>
       </c>
       <c r="M21">
-        <v>1.016964464561887</v>
+        <v>1.017713525246753</v>
       </c>
       <c r="N21">
-        <v>1.007489676410991</v>
+        <v>1.011034899281301</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.021998382678921</v>
+        <v>1.02259122947313</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020765632825346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022304429223712</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016638631900471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9777724958729722</v>
+        <v>0.9797347787699574</v>
       </c>
       <c r="D22">
-        <v>0.9965833909977933</v>
+        <v>0.999029941406265</v>
       </c>
       <c r="E22">
-        <v>0.9890328554127918</v>
+        <v>0.9907432085512048</v>
       </c>
       <c r="F22">
-        <v>0.9997242178144817</v>
+        <v>1.000580280326552</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03926436271488</v>
+        <v>1.039909260601985</v>
       </c>
       <c r="J22">
-        <v>1.009520254963393</v>
+        <v>1.01139094064988</v>
       </c>
       <c r="K22">
-        <v>1.012222836792113</v>
+        <v>1.014620639871957</v>
       </c>
       <c r="L22">
-        <v>1.004824749951528</v>
+        <v>1.006500302060531</v>
       </c>
       <c r="M22">
-        <v>1.015301139984202</v>
+        <v>1.016140250508557</v>
       </c>
       <c r="N22">
-        <v>1.007005413898915</v>
+        <v>1.010962234855861</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02068193654446</v>
+        <v>1.021346054875568</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019782187092264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021493374827376</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016397226637963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9792658817561074</v>
+        <v>0.9811059535850644</v>
       </c>
       <c r="D23">
-        <v>0.9976309542443295</v>
+        <v>0.9999353257132364</v>
       </c>
       <c r="E23">
-        <v>0.9901710743898782</v>
+        <v>0.9917743620331807</v>
       </c>
       <c r="F23">
-        <v>1.000940281923734</v>
+        <v>1.001742585657506</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039506443268193</v>
+        <v>1.040110003462489</v>
       </c>
       <c r="J23">
-        <v>1.010260976482092</v>
+        <v>1.012017683449559</v>
       </c>
       <c r="K23">
-        <v>1.012935585499541</v>
+        <v>1.015195222717993</v>
       </c>
       <c r="L23">
-        <v>1.005622399703465</v>
+        <v>1.007193915078</v>
       </c>
       <c r="M23">
-        <v>1.016180754436146</v>
+        <v>1.016967587328386</v>
       </c>
       <c r="N23">
-        <v>1.007258306971712</v>
+        <v>1.010955498168398</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.021378111900312</v>
+        <v>1.02200085420487</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02027632630783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.021888882252419</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01651782917401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985048454796505</v>
+        <v>0.9864723932729682</v>
       </c>
       <c r="D24">
-        <v>1.001718387987321</v>
+        <v>1.003516951778402</v>
       </c>
       <c r="E24">
-        <v>0.9945970036675662</v>
+        <v>0.995836924431589</v>
       </c>
       <c r="F24">
-        <v>1.005659407997218</v>
+        <v>1.006278938825952</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040424057237791</v>
+        <v>1.040888803670046</v>
       </c>
       <c r="J24">
-        <v>1.013134453404471</v>
+        <v>1.014501308804048</v>
       </c>
       <c r="K24">
-        <v>1.015715393859403</v>
+        <v>1.017482586019857</v>
       </c>
       <c r="L24">
-        <v>1.00871967102754</v>
+        <v>1.009937544908834</v>
       </c>
       <c r="M24">
-        <v>1.019587861699623</v>
+        <v>1.020196679260392</v>
       </c>
       <c r="N24">
-        <v>1.008240693663192</v>
+        <v>1.011125459472185</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.024074677572973</v>
+        <v>1.024556526999029</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022234211660311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.023497808872123</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017002221391376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.991530875729962</v>
+        <v>0.9926424202686652</v>
       </c>
       <c r="D25">
-        <v>1.00633329639245</v>
+        <v>1.007685552457461</v>
       </c>
       <c r="E25">
-        <v>0.9995895258857312</v>
+        <v>1.000559306157418</v>
       </c>
       <c r="F25">
-        <v>1.010984876665453</v>
+        <v>1.011467314715452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041402656216165</v>
+        <v>1.041766946442263</v>
       </c>
       <c r="J25">
-        <v>1.016346660309837</v>
+        <v>1.017419958969153</v>
       </c>
       <c r="K25">
-        <v>1.018834085264805</v>
+        <v>1.020165720277659</v>
       </c>
       <c r="L25">
-        <v>1.012194217279798</v>
+        <v>1.013148945818512</v>
       </c>
       <c r="M25">
-        <v>1.023415026718318</v>
+        <v>1.023890185829428</v>
       </c>
       <c r="N25">
-        <v>1.00933841572342</v>
+        <v>1.011868766893278</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.02710368649128</v>
+        <v>1.027479750129848</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.024436448733442</v>
+        <v>1.025391755695261</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017573483969221</v>
       </c>
     </row>
   </sheetData>
